--- a/example_data/import/project_contents/subproject_bvwp.xlsx
+++ b/example_data/import/project_contents/subproject_bvwp.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonas/PycharmProjects/pros/example_data/import/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/44b92e2d6c7d28b1/TU Berlin neu/Masterarbeit/Code/pros/example_data/import/project_contents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FECAAF-B0E2-094F-9654-7E4DEF977C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="834" documentId="13_ncr:1_{89FECAAF-B0E2-094F-9654-7E4DEF977C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52C8C39F-2816-6A48-A45C-EDD6088DD23D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16140" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="51200" windowHeight="26760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Deutschlandtakt" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Deutschlandtakt!$AQ$1:$AQ$1000</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Deutschlandtakt!$AQ$1:$AQ$998</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="NKV &lt; 1,5" guid="{23E76F66-981C-4206-9E06-CBB72D7DAC5B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Noch nicht in qgis" guid="{88289622-D034-4E38-A0C0-61CEB0F9C67E}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="NKV &lt; 1,5" guid="{23E76F66-981C-4206-9E06-CBB72D7DAC5B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="558">
   <si>
     <t>nbs</t>
   </si>
@@ -931,13 +931,796 @@
   </si>
   <si>
     <t>viergleisiger Ausbau Frankfurt-Stadion – Zeppelinheim inklusive Güterzuggleis Frankfurt Stadion</t>
+  </si>
+  <si>
+    <t>Knoten Köln Teilmaßnahme 1</t>
+  </si>
+  <si>
+    <t>K-003-V01 TM1</t>
+  </si>
+  <si>
+    <t>2-gleisiger Neubau Köln-Hansaring – Köln Süd – Hürth Kalscheuren (Westspange Köln)</t>
+  </si>
+  <si>
+    <t>Knoten Köln Teilmaßnahme 2</t>
+  </si>
+  <si>
+    <t>K-003-V01 TM2</t>
+  </si>
+  <si>
+    <t>Neubau 2-gleisige höhenfreie Verknüpfung der Wupperstrecke mit S-Bahnstrecke (Verknüpfungsbauwerk Köln-Mühlheim, Tunnelvariante)</t>
+  </si>
+  <si>
+    <t>Knoten Köln Teilmaßnahme 3</t>
+  </si>
+  <si>
+    <t>K-003-V01 TM3</t>
+  </si>
+  <si>
+    <t>Schaffung paralleler Ein- und Ausfahrtmöglichkeiten im Westkopf Köln Hbf von und nach Köln West, Köln-Ehrenfeld und Köln-Nippes durch zusätzliche Weichenverbindungen</t>
+  </si>
+  <si>
+    <t>Knoten Köln Teilmaßnahme 4</t>
+  </si>
+  <si>
+    <t>K-003-V01 TM4</t>
+  </si>
+  <si>
+    <t>Überwerfungsbauwerk Troisdorf für die höhenfreie Einbindung der S 13 Troisdorf – Bonn-Oberkassel im Bahnhof Troisdorf</t>
+  </si>
+  <si>
+    <t>Knoten Köln Teilmaßnahme 5</t>
+  </si>
+  <si>
+    <t>K-003-V01 TM5</t>
+  </si>
+  <si>
+    <t>Überwerfungsbauwerk Hürth-Kalscheuren</t>
+  </si>
+  <si>
+    <t>Knoten Köln Teilmaßnahme 6</t>
+  </si>
+  <si>
+    <t>K-003-V01 TM6</t>
+  </si>
+  <si>
+    <t>Überwerfungsbauwerk Gremberg Nord</t>
+  </si>
+  <si>
+    <t>Knoten Köln Teilmaßnahme 7</t>
+  </si>
+  <si>
+    <t>K-003-V01 TM7</t>
+  </si>
+  <si>
+    <t>Kreuzungsbauwerk Gremberg Nord</t>
+  </si>
+  <si>
+    <t>Knoten Köln Teilmaßnahme 8</t>
+  </si>
+  <si>
+    <t>K-003-V01 TM8</t>
+  </si>
+  <si>
+    <t>Verlängerung der NBS Köln – Rhein/Main vom Abzweig Steinstraße bis zum Abzweig Gummersbacher Straße</t>
+  </si>
+  <si>
+    <t>Knoten Mannheim Teilmaßnahme 1</t>
+  </si>
+  <si>
+    <t>Achsverschwenkung in Mannheim Hbf mit Optimierung der Gleisvorfelder</t>
+  </si>
+  <si>
+    <t>Knoten Mannheim Teilmaßnahme 2</t>
+  </si>
+  <si>
+    <t>4-gleisiger Ausbau Heidelberg-Wieblingen – Heidelberg Hbf</t>
+  </si>
+  <si>
+    <t>Knoten Mannheim Teilmaßnahme 3</t>
+  </si>
+  <si>
+    <t>K-004-V01 TM1</t>
+  </si>
+  <si>
+    <t>K-004-V01 TM2</t>
+  </si>
+  <si>
+    <t>K-004-V01 TM3</t>
+  </si>
+  <si>
+    <t>3-gleisiger Ausbau Mannheim Hbf – Mannheim-Friedrichsfeld Süd</t>
+  </si>
+  <si>
+    <t>Knoten Mannheim Teilmaßnahme 4</t>
+  </si>
+  <si>
+    <t>K-004-V01 TM4</t>
+  </si>
+  <si>
+    <t>Kreuzungsbauwerk Mannheim-Friedrichsfeld zur höhenfreien Verknüpfung der Main-Neckar-Bahn mit Mannheim Rbf</t>
+  </si>
+  <si>
+    <t>K-004-V01 TM5</t>
+  </si>
+  <si>
+    <t>1-gleisiger Neubau einer höhenfreien Verbindungskurve von Strecke 4060 zu Strecke 4020 bei Schwetzingen</t>
+  </si>
+  <si>
+    <t>Knoten Mannheim Teilmaßnahme 5</t>
+  </si>
+  <si>
+    <t>Knoten Mannheim Teilmaßnahme 6</t>
+  </si>
+  <si>
+    <t>K-004-V01 TM6</t>
+  </si>
+  <si>
+    <t>Neubau mittiges Puffergleis in Neu-Edingen</t>
+  </si>
+  <si>
+    <t>Knoten Mannheim Teilmaßnahme 7</t>
+  </si>
+  <si>
+    <t>K-004-V01 TM7</t>
+  </si>
+  <si>
+    <t>Neubau 740m-Überholgleise in Ludwigshafen Hbf durch Verlängerung der Gleise 105 und 106</t>
+  </si>
+  <si>
+    <t>Knoten Mannheim Teilmaßnahme 8</t>
+  </si>
+  <si>
+    <t>K-004-V01 TM8</t>
+  </si>
+  <si>
+    <t>Neubau 1-gleisige, elektrifizierte Verbindungskurve in der Relation BASF Gbf - Worms (Studernheimer Kurve)</t>
+  </si>
+  <si>
+    <t>Knoten Mannheim Teilmaßnahme 9</t>
+  </si>
+  <si>
+    <t>K-004-V01 TM9</t>
+  </si>
+  <si>
+    <t>Ertüchtigung Nordkopf Worms</t>
+  </si>
+  <si>
+    <t>2-037-V01 TM1</t>
+  </si>
+  <si>
+    <t>ABS Ludwigshafen – Saarbrücken – Grenze D/F Teilmaßnahme 1</t>
+  </si>
+  <si>
+    <t>Geschwindigkeitserhöhung auf Vmax = 200 km/h LU-Mundenheim – Limburgerhof</t>
+  </si>
+  <si>
+    <t>ABS Ludwigshafen – Saarbrücken – Grenze D/F Teilmaßnahme 2</t>
+  </si>
+  <si>
+    <t>2-037-V01 TM2</t>
+  </si>
+  <si>
+    <t>Geschwindigkeitserhöhung auf Vmax = 230 km/h Limburgerhof – Neustadt-Böbig</t>
+  </si>
+  <si>
+    <t>ABS Ludwigshafen – Saarbrücken – Grenze D/F Teilmaßnahme 3</t>
+  </si>
+  <si>
+    <t>2-037-V01 TM3</t>
+  </si>
+  <si>
+    <t>Erhöhung der Durchfahrtgeschwindigkeit in Neustadt Hbf auf 130 km/h</t>
+  </si>
+  <si>
+    <t>ABS Ludwigshafen – Saarbrücken – Grenze D/F Teilmaßnahme 4</t>
+  </si>
+  <si>
+    <t>2-037-V01 TM4</t>
+  </si>
+  <si>
+    <t>ABS Ludwigshafen – Saarbrücken – Grenze D/F Teilmaßnahme 5</t>
+  </si>
+  <si>
+    <t>2-037-V01 TM5</t>
+  </si>
+  <si>
+    <t>3-gleisger Ausbau Landstuhl – Kaiserslautern, Vmax = =160 km/h</t>
+  </si>
+  <si>
+    <t>Geschwindigkeitserhöhung auf Vmax = 130 km/h Neustadt – Hochspeyer</t>
+  </si>
+  <si>
+    <t>ABS Ludwigshafen – Saarbrücken – Grenze D/F Teilmaßnahme 6</t>
+  </si>
+  <si>
+    <t>2-037-V01 TM6</t>
+  </si>
+  <si>
+    <t>Einrichtung Kreuzungsbahnhof Eisenbach-Matzenbach (Strecke 3281)</t>
+  </si>
+  <si>
+    <t>Geschwindigkeitserhöhung auf Vmax = 230 km/h Homburg – Kaiserslautern inkl. der Beseitigung der Geschwindigkeitseinbrüche in Landstuhl und Hauptstuhl</t>
+  </si>
+  <si>
+    <t>ABS Ludwigshafen – Saarbrücken – Grenze D/F Teilmaßnahme 7</t>
+  </si>
+  <si>
+    <t>2-037-V01 TM7</t>
+  </si>
+  <si>
+    <t>Geschwindigkeitserhöhung auf Vmax = 120 km/h Rentrisch – Saarbrücken</t>
+  </si>
+  <si>
+    <t>ABS Ludwigshafen – Saarbrücken – Grenze D/F Teilmaßnahme 8</t>
+  </si>
+  <si>
+    <t>2-037-V01 TM8</t>
+  </si>
+  <si>
+    <t>Geschwindigkeitserhöhung auf Vmax = 110 km/h im Weichenbereich Saarbrücken Hbf</t>
+  </si>
+  <si>
+    <t>ABS Ludwigshafen – Saarbrücken – Grenze D/F Teilmaßnahme 9</t>
+  </si>
+  <si>
+    <t>2-037-V01 TM9</t>
+  </si>
+  <si>
+    <t>ABS Ludwigshafen – Saarbrücken – Grenze D/F Teilmaßnahme 10</t>
+  </si>
+  <si>
+    <t>2-037-V01 TM10</t>
+  </si>
+  <si>
+    <t>Geschwindigkeitserhöhung auf Vmax = 160 km/h Saarbrücken – Grenze D/F</t>
+  </si>
+  <si>
+    <t>2-005-V02 TM1</t>
+  </si>
+  <si>
+    <t>ABS/NBS Karlsruhe - Basel (BAB-Trasse) Teilmaßnahme 1</t>
+  </si>
+  <si>
+    <t>2-gleisige NBS "Offenburg Nord" - Hügelheim parallel zur A 5, Vmax = 160 km/h, mit zwei 1-gleisigen Güterzugtunneln Offenburg, Variante 1c (Umfahrung Stadtgebiet), Ausfädelung "Offenburg Nord" bei Strecken-km 143,0 (Kernforderungen 1 "Tunnel Offenburg", 2 "Autobahnparallele" lt. Beschluss des Projektbeirats Rheintalbahn)</t>
+  </si>
+  <si>
+    <t>ABS/NBS Karlsruhe - Basel (BAB-Trasse) Teilmaßnahme 2</t>
+  </si>
+  <si>
+    <t>2-005-V02 TM2</t>
+  </si>
+  <si>
+    <t>ABS/NBS Karlsruhe - Basel (BAB-Trasse) Teilmaßnahme 3</t>
+  </si>
+  <si>
+    <t>2-005-V02 TM3</t>
+  </si>
+  <si>
+    <t>Ausbau Bestandsstrecke (4000) Offenburg - Kenzingen auf Vmax = 250 km/h</t>
+  </si>
+  <si>
+    <t>3. u. 4. Gleis Friesenheim - Lahr u. Ringsheim - Kenzingen, Vmax = 160 km/h</t>
+  </si>
+  <si>
+    <t>ABS/NBS Karlsruhe - Basel (BAB-Trasse) Teilmaßnahme 4</t>
+  </si>
+  <si>
+    <t>2-005-V02 TM4</t>
+  </si>
+  <si>
+    <t>ABS/NBS Karlsruhe - Basel (BAB-Trasse) Teilmaßnahme 5</t>
+  </si>
+  <si>
+    <t>ABS/NBS Karlsruhe - Basel (BAB-Trasse) Teilmaßnahme 6</t>
+  </si>
+  <si>
+    <t>2-005-V02 TM5</t>
+  </si>
+  <si>
+    <t>2-005-V02 TM6</t>
+  </si>
+  <si>
+    <t>3. u. 4. Gleis Hügelheim - Müllheim, Vmax = 250 km/h</t>
+  </si>
+  <si>
+    <t>Ausbau Bestandsstrecke (4000) Kenzingen - Freiburg (Brsg) - Buggingen auf Vmax = 200 km/h</t>
+  </si>
+  <si>
+    <t>1-gleisige Verbindungskurve zwischen NBS u. Bestandsstrecke (4000) in Höhe Riegel für SGV von u. nach Freiburg, Vmax = 120 km/h</t>
+  </si>
+  <si>
+    <t>ABS/NBS Karlsruhe - Basel (BAB-Trasse) Teilmaßnahme 7</t>
+  </si>
+  <si>
+    <t>2-005-V02 TM7</t>
+  </si>
+  <si>
+    <t>Umsetzung der Kernforderungen 3 (erhöhter Schallschutz Riegel - Schallstadt), 4 (Bürgertrasse Bad Krozingen - Buggingen) u. der optimierten Kernforderung 6 (erhöhter Schallschutz Hügelheim - Müllheim (- Auggen), Knoten Hügelheim kreuzungsfrei)</t>
+  </si>
+  <si>
+    <t>ABS Stuttgart - Singen - Grenze D/CH (Gäubahn) Teilmaßnahme 1</t>
+  </si>
+  <si>
+    <t>2-040-V01 TM1</t>
+  </si>
+  <si>
+    <t>Geschwindigkeitserhöhung Stuttgart – Singen</t>
+  </si>
+  <si>
+    <t>ABS Stuttgart - Singen - Grenze D/CH (Gäubahn) Teilmaßnahme 2</t>
+  </si>
+  <si>
+    <t>ABS Stuttgart - Singen - Grenze D/CH (Gäubahn) Teilmaßnahme 3</t>
+  </si>
+  <si>
+    <t>ABS Stuttgart - Singen - Grenze D/CH (Gäubahn) Teilmaßnahme 4</t>
+  </si>
+  <si>
+    <t>ABS Stuttgart - Singen - Grenze D/CH (Gäubahn) Teilmaßnahme 5</t>
+  </si>
+  <si>
+    <t>2-040-V01 TM2</t>
+  </si>
+  <si>
+    <t>2-040-V01 TM3</t>
+  </si>
+  <si>
+    <t>2-040-V01 TM4</t>
+  </si>
+  <si>
+    <t>2-040-V01 TM5</t>
+  </si>
+  <si>
+    <t>2-gleisiger Ausbau Horb – Neckarhausen</t>
+  </si>
+  <si>
+    <t>Ausbau Nordkopf Oberndorf</t>
+  </si>
+  <si>
+    <t>2-gleisiger Ausbau Rottweil – Neufra</t>
+  </si>
+  <si>
+    <t>2-gleisiger Ausbau Spaichingen – Rietheim – Wurmlingen</t>
+  </si>
+  <si>
+    <t>ABS Stuttgart - Singen - Grenze D/CH (Gäubahn) Teilmaßnahme 6</t>
+  </si>
+  <si>
+    <t>2-040-V01 TM6</t>
+  </si>
+  <si>
+    <t>ABS Stuttgart - Singen - Grenze D/CH (Gäubahn) Teilmaßnahme 7</t>
+  </si>
+  <si>
+    <t>2-040-V01 TM7</t>
+  </si>
+  <si>
+    <t>ABS Stuttgart - Singen - Grenze D/CH (Gäubahn) Teilmaßnahme 8</t>
+  </si>
+  <si>
+    <t>2-040-V01 TM8</t>
+  </si>
+  <si>
+    <t>Neubau Umfahrungskurve Singen mit Anpassung des Haltepunkts Singen Landesgartenschau</t>
+  </si>
+  <si>
+    <t>Vmax = 80 km/h, Blockverdichtung Singen – Gottmadingen</t>
+  </si>
+  <si>
+    <t>Durchgängige Herstellung des Profil P/C 410</t>
+  </si>
+  <si>
+    <t>ABS Augsburg – Donauwörth Teilmaßnahme 1</t>
+  </si>
+  <si>
+    <t>2-026-V01 TM1</t>
+  </si>
+  <si>
+    <t>3. Gleis Augsburg-Oberhausen – Donauwörth, Vmax = 160 km/h</t>
+  </si>
+  <si>
+    <t>ABS Augsburg – Donauwörth Teilmaßnahme 2</t>
+  </si>
+  <si>
+    <t>2-026-V01 TM2</t>
+  </si>
+  <si>
+    <t>Neubau Kreuzungsbahnhöfe in Nordendorf und Langweid</t>
+  </si>
+  <si>
+    <t>K-005-V01 TM1</t>
+  </si>
+  <si>
+    <t>Knoten München Teilmaßnahme 1</t>
+  </si>
+  <si>
+    <t>Ausbau Westkopf München-Pasing</t>
+  </si>
+  <si>
+    <t>Knoten München Teilmaßnahme 2</t>
+  </si>
+  <si>
+    <t>Knoten München Teilmaßnahme 3</t>
+  </si>
+  <si>
+    <t>Knoten München Teilmaßnahme 4</t>
+  </si>
+  <si>
+    <t>K-005-V01 TM2</t>
+  </si>
+  <si>
+    <t>K-005-V01 TM3</t>
+  </si>
+  <si>
+    <t>K-005-V01 TM4</t>
+  </si>
+  <si>
+    <t>2-gleisiger Ausbau der Truderinger Spange</t>
+  </si>
+  <si>
+    <t>4-gleisiger Ausbau München-Daglfing - München-Johanneskirchen</t>
+  </si>
+  <si>
+    <t>Neubau 2-gleisige Verbindungskurve München-Daglfing - München-Riem (Daglfinger Kurve)</t>
+  </si>
+  <si>
+    <t>2-009-V03 TM1</t>
+  </si>
+  <si>
+    <t>ABS/NBS München - Rosenheim - Kiefersfelden - Grenze D/A Teilmaßnahme 1</t>
+  </si>
+  <si>
+    <t>Blockverdichtung München-Trudering - Grafing</t>
+  </si>
+  <si>
+    <t>2-gleisige NBS Grafing - Großkarolinenfeld, Vmax 230 km/h</t>
+  </si>
+  <si>
+    <t>ABS/NBS München - Rosenheim - Kiefersfelden - Grenze D/A Teilmaßnahme 2</t>
+  </si>
+  <si>
+    <t>ABS/NBS München - Rosenheim - Kiefersfelden - Grenze D/A Teilmaßnahme 3</t>
+  </si>
+  <si>
+    <t>2-009-V03 TM2</t>
+  </si>
+  <si>
+    <t>2-009-V03 TM3</t>
+  </si>
+  <si>
+    <t>2-gleisige NBS Großkarolinenfeld - Brannenburg, Vmax 230 km/h (Westumfahrung Rosenheim)</t>
+  </si>
+  <si>
+    <t>ABS/NBS München - Rosenheim - Kiefersfelden - Grenze D/A Teilmaßnahme 4</t>
+  </si>
+  <si>
+    <t>2-009-V03 TM4</t>
+  </si>
+  <si>
+    <t>zwei zusätzliche Gleise Brannenburg - Grenze D/A (- Kufstein), Vmax 230 km/h</t>
+  </si>
+  <si>
+    <t>Zweigleisiger Ausbau Markt Schwaben - Ampfing</t>
+  </si>
+  <si>
+    <t>ABS München - Mühldorf - Freilassing Teilmaßnahme 1</t>
+  </si>
+  <si>
+    <t>ABS München - Mühldorf - Freilassing Teilmaßnahme 2</t>
+  </si>
+  <si>
+    <t>ABS München - Mühldorf - Freilassing Teilmaßnahme 3</t>
+  </si>
+  <si>
+    <t>ABS München - Mühldorf - Freilassing Teilmaßnahme 4</t>
+  </si>
+  <si>
+    <t>Elektrifizierung Markt Schwaben - Ampfing - Mühldorf, Vmax = 200 km/h</t>
+  </si>
+  <si>
+    <t>zweigleisiger Ausbau Tüßling - Freilassing, Vmax = 160 km/h</t>
+  </si>
+  <si>
+    <t>Elektrifizierung Mühldorf - Tüßling - Freilassing, Elektrifizierung Tüßling - Burghausen</t>
+  </si>
+  <si>
+    <t>ABS München - Mühldorf - Freilassing Teilmaßnahme 5</t>
+  </si>
+  <si>
+    <t>ABS München - Mühldorf - Freilassing Teilmaßnahme 6</t>
+  </si>
+  <si>
+    <t>Neubau Truderinger Kurve</t>
+  </si>
+  <si>
+    <t>zweigleisiger Ausbau Flughafen München - Erding</t>
+  </si>
+  <si>
+    <t>ABS München - Mühldorf - Freilassing Teilmaßnahme 7</t>
+  </si>
+  <si>
+    <t>eingleisiger Neubau Walpertskirchener Spange</t>
+  </si>
+  <si>
+    <t>ABS Nürnberg/Regensburg - Furth im Wald - Grenze D/CZ Teilmaßnahme 1</t>
+  </si>
+  <si>
+    <t>2-022-V02 TM1</t>
+  </si>
+  <si>
+    <t>2-008-V04 TM1</t>
+  </si>
+  <si>
+    <t>2-008-V04 TM2</t>
+  </si>
+  <si>
+    <t>2-008-V04 TM3</t>
+  </si>
+  <si>
+    <t>2-008-V04 TM4</t>
+  </si>
+  <si>
+    <t>2-008-V04 TM5</t>
+  </si>
+  <si>
+    <t>2-008-V04 TM6</t>
+  </si>
+  <si>
+    <t>2-008-V04 TM7</t>
+  </si>
+  <si>
+    <t>Elektrifzierung Nürnberg-Mögelsdorf – Nürnberg-Dutzendteich</t>
+  </si>
+  <si>
+    <t>ABS Nürnberg/Regensburg - Furth im Wald - Grenze D/CZ Teilmaßnahme 2</t>
+  </si>
+  <si>
+    <t>ABS Nürnberg/Regensburg - Furth im Wald - Grenze D/CZ Teilmaßnahme 3</t>
+  </si>
+  <si>
+    <t>ABS Nürnberg/Regensburg - Furth im Wald - Grenze D/CZ Teilmaßnahme 4</t>
+  </si>
+  <si>
+    <t>ABS Nürnberg/Regensburg - Furth im Wald - Grenze D/CZ Teilmaßnahme 5</t>
+  </si>
+  <si>
+    <t>ABS Nürnberg/Regensburg - Furth im Wald - Grenze D/CZ Teilmaßnahme 6</t>
+  </si>
+  <si>
+    <t>2-022-V02 TM2</t>
+  </si>
+  <si>
+    <t>2-022-V02 TM3</t>
+  </si>
+  <si>
+    <t>2-022-V02 TM4</t>
+  </si>
+  <si>
+    <t>2-022-V02 TM5</t>
+  </si>
+  <si>
+    <t>2-022-V02 TM6</t>
+  </si>
+  <si>
+    <t>Elektrifizierung Hartmannshof – Amberg – Schwandorf</t>
+  </si>
+  <si>
+    <t>Elektrifizierung und Geschwindigkeitserhöhung (konventionell) Schwandorf – Cham – Furth im Wald</t>
+  </si>
+  <si>
+    <t>Elektrifizierung und Geschwindigkeitserhöhung (konventionell) Furth im Wald – Grenze D/CZ (– Ceska Kubice), Vmax = 110 km/h</t>
+  </si>
+  <si>
+    <t>Elektrifizierung Regensburg – Schwandorf</t>
+  </si>
+  <si>
+    <t>Ausbau Kreuzungsbahnhöfe Hiltersdorf und Freihöls</t>
+  </si>
+  <si>
+    <t>ABS Hof - Marktredwitz - Regensburg - Obertraubling (Ostkorridor Süd) Teilmaßnahme 1</t>
+  </si>
+  <si>
+    <t>2-019-V01 TM1</t>
+  </si>
+  <si>
+    <t>Elektrifizierung Hof - Marktredwitz - Regensburg</t>
+  </si>
+  <si>
+    <t>ABS Hof - Marktredwitz - Regensburg - Obertraubling (Ostkorridor Süd) Teilmaßnahme 2</t>
+  </si>
+  <si>
+    <t>ABS Hof - Marktredwitz - Regensburg - Obertraubling (Ostkorridor Süd) Teilmaßnahme 3</t>
+  </si>
+  <si>
+    <t>ABS Hof - Marktredwitz - Regensburg - Obertraubling (Ostkorridor Süd) Teilmaßnahme 4</t>
+  </si>
+  <si>
+    <t>2-019-V01 TM2</t>
+  </si>
+  <si>
+    <t>2-019-V01 TM3</t>
+  </si>
+  <si>
+    <t>2-019-V01 TM4</t>
+  </si>
+  <si>
+    <t>3. Gleis Regensburg - Obertraubling</t>
+  </si>
+  <si>
+    <t>2. Gleis Verbindungskurve Regensburg Hafenbrücke - Regensburg Ost</t>
+  </si>
+  <si>
+    <t>Herstellung KV-Profil P/C 400 Regensburg - Maxhütte-Haidhof u. Marktredwitz - Oberkotzau</t>
+  </si>
+  <si>
+    <t>ABS/NBS Nürnberg - Erfurt (VDE 8.1) Teilmaßnahnme 1</t>
+  </si>
+  <si>
+    <t>2-010-V07 TM1</t>
+  </si>
+  <si>
+    <t>Ausbau Forchheim - Strullendorf, Vmax = 230 km/h</t>
+  </si>
+  <si>
+    <t>ABS/NBS Nürnberg - Erfurt (VDE 8.1) Teilmaßnahnme 2</t>
+  </si>
+  <si>
+    <t>ABS/NBS Nürnberg - Erfurt (VDE 8.1) Teilmaßnahnme 3</t>
+  </si>
+  <si>
+    <t>ABS/NBS Nürnberg - Erfurt (VDE 8.1) Teilmaßnahnme 4</t>
+  </si>
+  <si>
+    <t>ABS/NBS Nürnberg - Erfurt (VDE 8.1) Teilmaßnahnme 5</t>
+  </si>
+  <si>
+    <t>2-010-V07 TM2</t>
+  </si>
+  <si>
+    <t>2-010-V07 TM3</t>
+  </si>
+  <si>
+    <t>2-010-V07 TM4</t>
+  </si>
+  <si>
+    <t>2-010-V07 TM5</t>
+  </si>
+  <si>
+    <t>Überholungsbahnhof Eggolsheim Süd</t>
+  </si>
+  <si>
+    <t>Neubau Strullendorf - Breitengüßbach entlang der A73, Vmax = 230 km/h</t>
+  </si>
+  <si>
+    <t>Neubau Güterzugtunnel Fürth zwischen Nürnberg-Kleinreuth - Eltersdorf, Vmax = 120 km/h</t>
+  </si>
+  <si>
+    <t>verschiedene Maßnahmen zur Geschwindigkeitserhöhung</t>
+  </si>
+  <si>
+    <t>Blockverdichtung Burgsinn - Gemünden - Würzburg - Siegelsdorf</t>
+  </si>
+  <si>
+    <t>ABS Burgsinn - Gemünden - Würzburg - Nürnberg Teilmaßnahme 1</t>
+  </si>
+  <si>
+    <t>2-013-V01 TM1</t>
+  </si>
+  <si>
+    <t>3. Gleis Siegelsdorf - Fürth</t>
+  </si>
+  <si>
+    <t>ABS Burgsinn - Gemünden - Würzburg - Nürnberg Teilmaßnahme 2</t>
+  </si>
+  <si>
+    <t>2-013-V01 TM2</t>
+  </si>
+  <si>
+    <t>Knoten Frankfurt Teilmaßnahme 1</t>
+  </si>
+  <si>
+    <t>2-gleisiger Neubau Frankfurt-Stadion – Frankfurt Hbf (3. Niederräder Brücke)</t>
+  </si>
+  <si>
+    <t>Knoten Frankfurt Teilmaßnahme 2</t>
+  </si>
+  <si>
+    <t>Knoten Frankfurt Teilmaßnahme 3</t>
+  </si>
+  <si>
+    <t>Knoten Frankfurt Teilmaßnahme 4</t>
+  </si>
+  <si>
+    <t>Knoten Frankfurt Teilmaßnahme 5</t>
+  </si>
+  <si>
+    <t>Knoten Frankfurt Teilmaßnahme 6</t>
+  </si>
+  <si>
+    <t>Knoten Frankfurt Teilmaßnahme 7</t>
+  </si>
+  <si>
+    <t>Neubau 2-gleisiges Überwerfungsbauwerk Frankfurt-Stadion in der Relation Frankfurt Süd – Frankfurt-Stadion – Frankfurt Flughafen Regionalbahnhof</t>
+  </si>
+  <si>
+    <t>Blockverdichtung Zeppelinheim – Frankfurt Flughafen Fernbahnhof,</t>
+  </si>
+  <si>
+    <t>2-gleisiger Neubau der „Nordmainischen S-Bahn“</t>
+  </si>
+  <si>
+    <t>Neubau 2-gleisiger Fernbahntunnel Frankfurt mit 4-gleisigen Tiefbahnhof Frankfurt Hbf, Vmax = 120 km/h</t>
+  </si>
+  <si>
+    <t>neue 1-gleisige Weichenverbindung in Darmstadt Nord</t>
+  </si>
+  <si>
+    <t>Neubau eines Gleises mit höhenfreien Einbindungen der 2-gleisigen Verbindungskurve Mainaschaff</t>
+  </si>
+  <si>
+    <t>K-001-V01 TM1</t>
+  </si>
+  <si>
+    <t>K-001-V01 TM2</t>
+  </si>
+  <si>
+    <t>K-001-V01 TM3</t>
+  </si>
+  <si>
+    <t>K-001-V01 TM4</t>
+  </si>
+  <si>
+    <t>K-001-V01 TM5</t>
+  </si>
+  <si>
+    <t>K-001-V01 TM6</t>
+  </si>
+  <si>
+    <t>K-001-V01 TM7</t>
+  </si>
+  <si>
+    <t>2-014-V01 TM1</t>
+  </si>
+  <si>
+    <t>ABS Nürnberg - Passau Teilmaßnahme 1</t>
+  </si>
+  <si>
+    <t>3. Gleis Feucht - Neumarkt (Opf.)</t>
+  </si>
+  <si>
+    <t>ABS Nürnberg - Passau Teilmaßnahme 2</t>
+  </si>
+  <si>
+    <t>ABS Nürnberg - Passau Teilmaßnahme 3</t>
+  </si>
+  <si>
+    <t>2-014-V01 TM2</t>
+  </si>
+  <si>
+    <t>2-014-V01 TM3</t>
+  </si>
+  <si>
+    <t>Blockverdichtung Neumarkt (Opf.) - Regensburg</t>
+  </si>
+  <si>
+    <t> 3. Gleis Regensburg Hbf - Obertraubling</t>
+  </si>
+  <si>
+    <t>Blockverdichtung Obertraubling - Plattling</t>
+  </si>
+  <si>
+    <t>ABS Nürnberg - Passau Teilmaßnahme 4</t>
+  </si>
+  <si>
+    <t>2-014-V01 TM4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1009,6 +1792,12 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1030,31 +1819,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1304,11 +2092,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AX1048576"/>
+  <dimension ref="A1:AX1048574"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B90" sqref="B90"/>
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X176" sqref="X176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1322,12 +2110,12 @@
     <col min="8" max="8" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="14.5" customWidth="1"/>
     <col min="12" max="12" width="10.1640625" customWidth="1"/>
-    <col min="13" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" customWidth="1"/>
-    <col min="15" max="15" width="7.6640625" customWidth="1"/>
-    <col min="16" max="16" width="8.83203125" customWidth="1"/>
+    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7" customWidth="1"/>
+    <col min="18" max="18" width="8.5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.83203125" customWidth="1"/>
     <col min="20" max="20" width="11.5" customWidth="1"/>
     <col min="21" max="21" width="12.83203125" customWidth="1"/>
@@ -1341,131 +2129,131 @@
     <col min="49" max="50" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="12" customFormat="1" ht="16">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:50" s="11" customFormat="1" ht="16">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="10" t="s">
+      <c r="K1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="V1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="W1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="X1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Y1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="Z1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AA1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AB1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AC1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AD1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AE1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AF1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AG1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AH1" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AI1" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="AJ1" s="15" t="s">
+      <c r="AJ1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" s="15" t="s">
+      <c r="AK1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="AL1" s="15" t="s">
+      <c r="AL1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="AM1" s="10"/>
-      <c r="AN1" s="10"/>
-      <c r="AO1" s="9"/>
-      <c r="AP1" s="9"/>
-      <c r="AQ1" s="9"/>
-      <c r="AR1" s="9"/>
-      <c r="AS1" s="9"/>
-      <c r="AT1" s="9"/>
-      <c r="AU1" s="9"/>
-      <c r="AV1" s="9"/>
-      <c r="AW1" s="9"/>
-      <c r="AX1" s="9"/>
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
     </row>
     <row r="2" spans="1:50" ht="34">
       <c r="A2" s="2">
@@ -1510,7 +2298,7 @@
       <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="4"/>
-      <c r="AR2" s="7"/>
+      <c r="AR2" s="5"/>
       <c r="AS2" s="2"/>
       <c r="AT2" s="2"/>
       <c r="AU2" s="2"/>
@@ -1565,7 +2353,7 @@
       <c r="AO3" s="2"/>
       <c r="AP3" s="2"/>
       <c r="AQ3" s="4"/>
-      <c r="AR3" s="7"/>
+      <c r="AR3" s="5"/>
       <c r="AS3" s="2"/>
       <c r="AT3" s="2"/>
       <c r="AU3" s="2"/>
@@ -1623,7 +2411,7 @@
       <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="4"/>
-      <c r="AR4" s="7"/>
+      <c r="AR4" s="5"/>
       <c r="AS4" s="2"/>
       <c r="AT4" s="2"/>
       <c r="AU4" s="2"/>
@@ -1674,7 +2462,7 @@
       <c r="AO5" s="2"/>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="4"/>
-      <c r="AR5" s="7"/>
+      <c r="AR5" s="5"/>
       <c r="AS5" s="2"/>
       <c r="AT5" s="2"/>
       <c r="AU5" s="2"/>
@@ -1731,7 +2519,7 @@
       <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="4"/>
-      <c r="AR6" s="7"/>
+      <c r="AR6" s="5"/>
       <c r="AS6" s="2"/>
       <c r="AT6" s="2"/>
       <c r="AU6" s="2"/>
@@ -1781,7 +2569,7 @@
       <c r="AO7" s="2"/>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="5"/>
-      <c r="AR7" s="7"/>
+      <c r="AR7" s="5"/>
       <c r="AS7" s="2"/>
       <c r="AT7" s="2"/>
       <c r="AU7" s="2"/>
@@ -1838,7 +2626,7 @@
       <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="4"/>
-      <c r="AR8" s="7"/>
+      <c r="AR8" s="5"/>
       <c r="AS8" s="2"/>
       <c r="AT8" s="2"/>
       <c r="AU8" s="2"/>
@@ -1885,7 +2673,7 @@
       <c r="AO9" s="2"/>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="4"/>
-      <c r="AR9" s="7"/>
+      <c r="AR9" s="5"/>
       <c r="AS9" s="2"/>
       <c r="AT9" s="2"/>
       <c r="AU9" s="2"/>
@@ -1930,7 +2718,7 @@
       <c r="AO10" s="2"/>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="5"/>
-      <c r="AR10" s="7"/>
+      <c r="AR10" s="5"/>
       <c r="AS10" s="2"/>
       <c r="AT10" s="2"/>
       <c r="AU10" s="2"/>
@@ -1976,7 +2764,7 @@
       <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="4"/>
-      <c r="AR11" s="7"/>
+      <c r="AR11" s="5"/>
       <c r="AS11" s="2"/>
       <c r="AT11" s="2"/>
       <c r="AU11" s="2"/>
@@ -2026,7 +2814,7 @@
       <c r="AO12" s="2"/>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="4"/>
-      <c r="AR12" s="7"/>
+      <c r="AR12" s="5"/>
       <c r="AS12" s="2"/>
       <c r="AT12" s="2"/>
       <c r="AU12" s="2"/>
@@ -2078,7 +2866,7 @@
       <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="5"/>
-      <c r="AR13" s="7"/>
+      <c r="AR13" s="5"/>
       <c r="AS13" s="2"/>
       <c r="AT13" s="2"/>
       <c r="AU13" s="2"/>
@@ -2131,7 +2919,7 @@
       <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="5"/>
-      <c r="AR14" s="7"/>
+      <c r="AR14" s="5"/>
       <c r="AS14" s="2"/>
       <c r="AT14" s="2"/>
       <c r="AU14" s="2"/>
@@ -2177,7 +2965,7 @@
       <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="5"/>
-      <c r="AR15" s="7"/>
+      <c r="AR15" s="5"/>
       <c r="AS15" s="2"/>
       <c r="AT15" s="2"/>
       <c r="AU15" s="2"/>
@@ -2226,7 +3014,7 @@
       <c r="AO16" s="2"/>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="4"/>
-      <c r="AR16" s="7"/>
+      <c r="AR16" s="5"/>
       <c r="AS16" s="2"/>
       <c r="AT16" s="2"/>
       <c r="AU16" s="2"/>
@@ -2274,7 +3062,7 @@
       <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="4"/>
-      <c r="AR17" s="7"/>
+      <c r="AR17" s="5"/>
       <c r="AS17" s="2"/>
       <c r="AT17" s="2"/>
       <c r="AU17" s="2"/>
@@ -2317,7 +3105,7 @@
       <c r="AO18" s="2"/>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="4"/>
-      <c r="AR18" s="7"/>
+      <c r="AR18" s="5"/>
       <c r="AS18" s="2"/>
       <c r="AT18" s="2"/>
       <c r="AU18" s="2"/>
@@ -2361,7 +3149,7 @@
       <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
       <c r="AQ19" s="5"/>
-      <c r="AR19" s="7"/>
+      <c r="AR19" s="5"/>
       <c r="AS19" s="2"/>
       <c r="AT19" s="2"/>
       <c r="AU19" s="2"/>
@@ -2397,7 +3185,7 @@
       <c r="AO20" s="2"/>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="5"/>
-      <c r="AR20" s="7"/>
+      <c r="AR20" s="5"/>
       <c r="AS20" s="2"/>
       <c r="AT20" s="2"/>
       <c r="AU20" s="2"/>
@@ -2432,7 +3220,7 @@
       <c r="AO21" s="2"/>
       <c r="AP21" s="2"/>
       <c r="AQ21" s="5"/>
-      <c r="AR21" s="7"/>
+      <c r="AR21" s="5"/>
       <c r="AS21" s="2"/>
       <c r="AT21" s="2"/>
       <c r="AU21" s="2"/>
@@ -2476,7 +3264,7 @@
       <c r="AO22" s="2"/>
       <c r="AP22" s="2"/>
       <c r="AQ22" s="5"/>
-      <c r="AR22" s="7"/>
+      <c r="AR22" s="5"/>
       <c r="AS22" s="2"/>
       <c r="AT22" s="2"/>
       <c r="AU22" s="2"/>
@@ -2520,7 +3308,7 @@
       <c r="AO23" s="2"/>
       <c r="AP23" s="2"/>
       <c r="AQ23" s="4"/>
-      <c r="AR23" s="7"/>
+      <c r="AR23" s="5"/>
       <c r="AS23" s="2"/>
       <c r="AT23" s="2"/>
       <c r="AU23" s="2"/>
@@ -2565,7 +3353,7 @@
       <c r="AO24" s="2"/>
       <c r="AP24" s="2"/>
       <c r="AQ24" s="4"/>
-      <c r="AR24" s="7"/>
+      <c r="AR24" s="5"/>
       <c r="AS24" s="2"/>
       <c r="AT24" s="2"/>
       <c r="AU24" s="2"/>
@@ -2609,7 +3397,7 @@
       <c r="AO25" s="2"/>
       <c r="AP25" s="2"/>
       <c r="AQ25" s="4"/>
-      <c r="AR25" s="7"/>
+      <c r="AR25" s="5"/>
       <c r="AS25" s="2"/>
       <c r="AT25" s="2"/>
       <c r="AU25" s="2"/>
@@ -2655,7 +3443,7 @@
       <c r="AO26" s="2"/>
       <c r="AP26" s="2"/>
       <c r="AQ26" s="4"/>
-      <c r="AR26" s="7"/>
+      <c r="AR26" s="5"/>
       <c r="AS26" s="2"/>
       <c r="AT26" s="2"/>
       <c r="AU26" s="2"/>
@@ -2703,7 +3491,7 @@
       <c r="AO27" s="2"/>
       <c r="AP27" s="2"/>
       <c r="AQ27" s="4"/>
-      <c r="AR27" s="7"/>
+      <c r="AR27" s="5"/>
       <c r="AS27" s="2"/>
       <c r="AT27" s="2"/>
       <c r="AU27" s="2"/>
@@ -2752,7 +3540,7 @@
       <c r="AO28" s="2"/>
       <c r="AP28" s="2"/>
       <c r="AQ28" s="4"/>
-      <c r="AR28" s="7"/>
+      <c r="AR28" s="5"/>
       <c r="AS28" s="2"/>
       <c r="AT28" s="2"/>
       <c r="AU28" s="2"/>
@@ -2811,7 +3599,7 @@
       <c r="AO29" s="2"/>
       <c r="AP29" s="2"/>
       <c r="AQ29" s="4"/>
-      <c r="AR29" s="7"/>
+      <c r="AR29" s="5"/>
       <c r="AS29" s="2"/>
       <c r="AT29" s="2"/>
       <c r="AU29" s="2"/>
@@ -2859,7 +3647,7 @@
       <c r="AO30" s="2"/>
       <c r="AP30" s="2"/>
       <c r="AQ30" s="4"/>
-      <c r="AR30" s="7"/>
+      <c r="AR30" s="5"/>
       <c r="AS30" s="2"/>
       <c r="AT30" s="2"/>
       <c r="AU30" s="2"/>
@@ -2903,7 +3691,7 @@
       <c r="AO31" s="2"/>
       <c r="AP31" s="2"/>
       <c r="AQ31" s="4"/>
-      <c r="AR31" s="7"/>
+      <c r="AR31" s="5"/>
       <c r="AS31" s="2"/>
       <c r="AT31" s="2"/>
       <c r="AU31" s="2"/>
@@ -2950,7 +3738,7 @@
       <c r="AO32" s="2"/>
       <c r="AP32" s="2"/>
       <c r="AQ32" s="5"/>
-      <c r="AR32" s="7"/>
+      <c r="AR32" s="5"/>
       <c r="AS32" s="2"/>
       <c r="AT32" s="2"/>
       <c r="AU32" s="2"/>
@@ -3004,7 +3792,7 @@
       <c r="AO33" s="2"/>
       <c r="AP33" s="2"/>
       <c r="AQ33" s="5"/>
-      <c r="AR33" s="7"/>
+      <c r="AR33" s="5"/>
       <c r="AS33" s="2"/>
       <c r="AT33" s="2"/>
       <c r="AU33" s="2"/>
@@ -3054,7 +3842,7 @@
       <c r="AO34" s="2"/>
       <c r="AP34" s="2"/>
       <c r="AQ34" s="5"/>
-      <c r="AR34" s="7"/>
+      <c r="AR34" s="5"/>
       <c r="AS34" s="2"/>
       <c r="AT34" s="2"/>
       <c r="AU34" s="2"/>
@@ -3099,7 +3887,7 @@
       <c r="AO35" s="2"/>
       <c r="AP35" s="2"/>
       <c r="AQ35" s="5"/>
-      <c r="AR35" s="7"/>
+      <c r="AR35" s="5"/>
       <c r="AS35" s="2"/>
       <c r="AT35" s="2"/>
       <c r="AU35" s="2"/>
@@ -3147,7 +3935,7 @@
       <c r="AO36" s="2"/>
       <c r="AP36" s="2"/>
       <c r="AQ36" s="5"/>
-      <c r="AR36" s="7"/>
+      <c r="AR36" s="5"/>
       <c r="AS36" s="2"/>
       <c r="AT36" s="2"/>
       <c r="AU36" s="2"/>
@@ -3193,7 +3981,7 @@
       <c r="AO37" s="2"/>
       <c r="AP37" s="2"/>
       <c r="AQ37" s="4"/>
-      <c r="AR37" s="7"/>
+      <c r="AR37" s="5"/>
       <c r="AS37" s="2"/>
       <c r="AT37" s="2"/>
       <c r="AU37" s="2"/>
@@ -3240,7 +4028,7 @@
       <c r="AO38" s="2"/>
       <c r="AP38" s="2"/>
       <c r="AQ38" s="5"/>
-      <c r="AR38" s="7"/>
+      <c r="AR38" s="5"/>
       <c r="AS38" s="2"/>
       <c r="AT38" s="2"/>
       <c r="AU38" s="2"/>
@@ -3260,7 +4048,7 @@
         <v>149</v>
       </c>
       <c r="E39" s="2" t="str">
-        <f t="shared" ref="E39:G88" si="2">RIGHT(C39,LEN(C39)-SEARCH(" ",C39,1))</f>
+        <f t="shared" ref="E39:G91" si="2">RIGHT(C39,LEN(C39)-SEARCH(" ",C39,1))</f>
         <v>Uelzen – Stendal - Magdeburg - Halle (Ostkorridor Nord) Teilmaßnahme Veerßen – Salzwedel</v>
       </c>
       <c r="F39" s="2"/>
@@ -3294,7 +4082,7 @@
       <c r="AO39" s="2"/>
       <c r="AP39" s="2"/>
       <c r="AQ39" s="5"/>
-      <c r="AR39" s="7"/>
+      <c r="AR39" s="5"/>
       <c r="AS39" s="2"/>
       <c r="AT39" s="2"/>
       <c r="AU39" s="2"/>
@@ -3339,7 +4127,7 @@
       <c r="AO40" s="2"/>
       <c r="AP40" s="2"/>
       <c r="AQ40" s="4"/>
-      <c r="AR40" s="7"/>
+      <c r="AR40" s="5"/>
       <c r="AS40" s="2"/>
       <c r="AT40" s="2"/>
       <c r="AU40" s="2"/>
@@ -3386,7 +4174,7 @@
       <c r="AO41" s="2"/>
       <c r="AP41" s="2"/>
       <c r="AQ41" s="5"/>
-      <c r="AR41" s="7"/>
+      <c r="AR41" s="5"/>
       <c r="AS41" s="2"/>
       <c r="AT41" s="2"/>
       <c r="AU41" s="2"/>
@@ -3437,7 +4225,7 @@
       <c r="AO42" s="2"/>
       <c r="AP42" s="2"/>
       <c r="AQ42" s="5"/>
-      <c r="AR42" s="7"/>
+      <c r="AR42" s="5"/>
       <c r="AS42" s="2"/>
       <c r="AT42" s="2"/>
       <c r="AU42" s="2"/>
@@ -3485,7 +4273,7 @@
       <c r="AO43" s="2"/>
       <c r="AP43" s="2"/>
       <c r="AQ43" s="5"/>
-      <c r="AR43" s="7"/>
+      <c r="AR43" s="5"/>
       <c r="AS43" s="2"/>
       <c r="AT43" s="2"/>
       <c r="AU43" s="2"/>
@@ -3531,7 +4319,7 @@
       <c r="AO44" s="2"/>
       <c r="AP44" s="2"/>
       <c r="AQ44" s="4"/>
-      <c r="AR44" s="7"/>
+      <c r="AR44" s="5"/>
       <c r="AS44" s="2"/>
       <c r="AT44" s="2"/>
       <c r="AU44" s="2"/>
@@ -3579,7 +4367,7 @@
       <c r="AO45" s="2"/>
       <c r="AP45" s="2"/>
       <c r="AQ45" s="4"/>
-      <c r="AR45" s="7"/>
+      <c r="AR45" s="5"/>
       <c r="AS45" s="2"/>
       <c r="AT45" s="2"/>
       <c r="AU45" s="2"/>
@@ -3627,7 +4415,7 @@
       <c r="AO46" s="2"/>
       <c r="AP46" s="2"/>
       <c r="AQ46" s="4"/>
-      <c r="AR46" s="7"/>
+      <c r="AR46" s="5"/>
       <c r="AS46" s="2"/>
       <c r="AT46" s="2"/>
       <c r="AU46" s="2"/>
@@ -3674,7 +4462,7 @@
       <c r="AO47" s="2"/>
       <c r="AP47" s="2"/>
       <c r="AQ47" s="4"/>
-      <c r="AR47" s="7"/>
+      <c r="AR47" s="5"/>
       <c r="AS47" s="2"/>
       <c r="AT47" s="2"/>
       <c r="AU47" s="2"/>
@@ -3726,7 +4514,7 @@
       <c r="AO48" s="2"/>
       <c r="AP48" s="2"/>
       <c r="AQ48" s="4"/>
-      <c r="AR48" s="7"/>
+      <c r="AR48" s="5"/>
       <c r="AS48" s="2"/>
       <c r="AT48" s="2"/>
       <c r="AU48" s="2"/>
@@ -3778,7 +4566,7 @@
       <c r="AO49" s="2"/>
       <c r="AP49" s="2"/>
       <c r="AQ49" s="4"/>
-      <c r="AR49" s="7"/>
+      <c r="AR49" s="5"/>
       <c r="AS49" s="2"/>
       <c r="AT49" s="2"/>
       <c r="AU49" s="2"/>
@@ -3826,7 +4614,7 @@
       <c r="AO50" s="2"/>
       <c r="AP50" s="2"/>
       <c r="AQ50" s="4"/>
-      <c r="AR50" s="7"/>
+      <c r="AR50" s="5"/>
       <c r="AS50" s="2"/>
       <c r="AT50" s="2"/>
       <c r="AU50" s="2"/>
@@ -3856,7 +4644,7 @@
       <c r="H51" s="3"/>
       <c r="I51" s="4"/>
       <c r="K51" s="1"/>
-      <c r="R51" s="13" t="b">
+      <c r="R51" s="12" t="b">
         <v>1</v>
       </c>
       <c r="W51" t="b">
@@ -3879,7 +4667,7 @@
       <c r="AO51" s="2"/>
       <c r="AP51" s="2"/>
       <c r="AQ51" s="5"/>
-      <c r="AR51" s="7"/>
+      <c r="AR51" s="5"/>
       <c r="AS51" s="2"/>
       <c r="AT51" s="2"/>
       <c r="AU51" s="2"/>
@@ -3923,7 +4711,7 @@
       <c r="AO52" s="2"/>
       <c r="AP52" s="2"/>
       <c r="AQ52" s="5"/>
-      <c r="AR52" s="7"/>
+      <c r="AR52" s="5"/>
       <c r="AS52" s="2"/>
       <c r="AT52" s="2"/>
       <c r="AU52" s="2"/>
@@ -3967,7 +4755,7 @@
       <c r="AO53" s="2"/>
       <c r="AP53" s="2"/>
       <c r="AQ53" s="4"/>
-      <c r="AR53" s="7"/>
+      <c r="AR53" s="5"/>
       <c r="AS53" s="2"/>
       <c r="AT53" s="2"/>
       <c r="AU53" s="2"/>
@@ -4012,7 +4800,7 @@
       <c r="AO54" s="2"/>
       <c r="AP54" s="2"/>
       <c r="AQ54" s="4"/>
-      <c r="AR54" s="7"/>
+      <c r="AR54" s="5"/>
       <c r="AS54" s="2"/>
       <c r="AT54" s="2"/>
       <c r="AU54" s="2"/>
@@ -4054,7 +4842,7 @@
       <c r="AO55" s="2"/>
       <c r="AP55" s="2"/>
       <c r="AQ55" s="5"/>
-      <c r="AR55" s="7"/>
+      <c r="AR55" s="5"/>
       <c r="AS55" s="2"/>
       <c r="AT55" s="2"/>
       <c r="AU55" s="2"/>
@@ -4093,7 +4881,7 @@
       <c r="AO56" s="2"/>
       <c r="AP56" s="2"/>
       <c r="AQ56" s="4"/>
-      <c r="AR56" s="7"/>
+      <c r="AR56" s="5"/>
       <c r="AS56" s="2"/>
       <c r="AT56" s="2"/>
       <c r="AU56" s="2"/>
@@ -4130,7 +4918,7 @@
       <c r="AO57" s="2"/>
       <c r="AP57" s="2"/>
       <c r="AQ57" s="4"/>
-      <c r="AR57" s="7"/>
+      <c r="AR57" s="5"/>
       <c r="AS57" s="2"/>
       <c r="AT57" s="2"/>
       <c r="AU57" s="2"/>
@@ -4173,7 +4961,7 @@
       <c r="AO58" s="2"/>
       <c r="AP58" s="2"/>
       <c r="AQ58" s="4"/>
-      <c r="AR58" s="7"/>
+      <c r="AR58" s="5"/>
       <c r="AS58" s="2"/>
       <c r="AT58" s="2"/>
       <c r="AU58" s="2"/>
@@ -4209,7 +4997,7 @@
       <c r="AO59" s="2"/>
       <c r="AP59" s="2"/>
       <c r="AQ59" s="5"/>
-      <c r="AR59" s="7"/>
+      <c r="AR59" s="5"/>
       <c r="AS59" s="2"/>
       <c r="AT59" s="2"/>
       <c r="AU59" s="2"/>
@@ -4248,7 +5036,7 @@
       <c r="AO60" s="2"/>
       <c r="AP60" s="2"/>
       <c r="AQ60" s="5"/>
-      <c r="AR60" s="7"/>
+      <c r="AR60" s="5"/>
       <c r="AS60" s="2"/>
       <c r="AT60" s="2"/>
       <c r="AU60" s="2"/>
@@ -4277,7 +5065,7 @@
       </c>
       <c r="H61" s="3"/>
       <c r="I61" s="4"/>
-      <c r="J61" s="13"/>
+      <c r="J61" s="12"/>
       <c r="L61" t="b">
         <v>1</v>
       </c>
@@ -4285,7 +5073,7 @@
       <c r="AO61" s="2"/>
       <c r="AP61" s="2"/>
       <c r="AQ61" s="5"/>
-      <c r="AR61" s="7"/>
+      <c r="AR61" s="5"/>
       <c r="AS61" s="2"/>
       <c r="AT61" s="2"/>
       <c r="AU61" s="2"/>
@@ -4321,7 +5109,7 @@
       <c r="AO62" s="2"/>
       <c r="AP62" s="2"/>
       <c r="AQ62" s="5"/>
-      <c r="AR62" s="7"/>
+      <c r="AR62" s="5"/>
       <c r="AS62" s="2"/>
       <c r="AT62" s="2"/>
       <c r="AU62" s="2"/>
@@ -4369,7 +5157,7 @@
       <c r="AO63" s="2"/>
       <c r="AP63" s="2"/>
       <c r="AQ63" s="4"/>
-      <c r="AR63" s="7"/>
+      <c r="AR63" s="5"/>
       <c r="AS63" s="2"/>
       <c r="AT63" s="2"/>
       <c r="AU63" s="2"/>
@@ -4416,7 +5204,7 @@
       <c r="AO64" s="2"/>
       <c r="AP64" s="2"/>
       <c r="AQ64" s="4"/>
-      <c r="AR64" s="7"/>
+      <c r="AR64" s="5"/>
       <c r="AS64" s="2"/>
       <c r="AT64" s="2"/>
       <c r="AU64" s="2"/>
@@ -4462,7 +5250,7 @@
       <c r="AO65" s="2"/>
       <c r="AP65" s="2"/>
       <c r="AQ65" s="4"/>
-      <c r="AR65" s="7"/>
+      <c r="AR65" s="5"/>
       <c r="AS65" s="2"/>
       <c r="AT65" s="2"/>
       <c r="AU65" s="2"/>
@@ -4519,7 +5307,7 @@
       <c r="AO66" s="2"/>
       <c r="AP66" s="2"/>
       <c r="AQ66" s="4"/>
-      <c r="AR66" s="7"/>
+      <c r="AR66" s="5"/>
       <c r="AS66" s="2"/>
       <c r="AT66" s="2"/>
       <c r="AU66" s="2"/>
@@ -4571,7 +5359,7 @@
       <c r="AO67" s="2"/>
       <c r="AP67" s="2"/>
       <c r="AQ67" s="4"/>
-      <c r="AR67" s="7"/>
+      <c r="AR67" s="5"/>
       <c r="AS67" s="2"/>
       <c r="AT67" s="2"/>
       <c r="AU67" s="2"/>
@@ -4625,7 +5413,7 @@
       <c r="AO68" s="2"/>
       <c r="AP68" s="2"/>
       <c r="AQ68" s="4"/>
-      <c r="AR68" s="7"/>
+      <c r="AR68" s="5"/>
       <c r="AS68" s="2"/>
       <c r="AT68" s="2"/>
       <c r="AU68" s="2"/>
@@ -4677,7 +5465,7 @@
       <c r="AO69" s="2"/>
       <c r="AP69" s="2"/>
       <c r="AQ69" s="4"/>
-      <c r="AR69" s="7"/>
+      <c r="AR69" s="5"/>
       <c r="AS69" s="2"/>
       <c r="AT69" s="2"/>
       <c r="AU69" s="2"/>
@@ -4722,7 +5510,7 @@
       <c r="AO70" s="2"/>
       <c r="AP70" s="2"/>
       <c r="AQ70" s="5"/>
-      <c r="AR70" s="7"/>
+      <c r="AR70" s="5"/>
       <c r="AS70" s="2"/>
       <c r="AT70" s="2"/>
       <c r="AU70" s="2"/>
@@ -4773,7 +5561,7 @@
       <c r="AO71" s="2"/>
       <c r="AP71" s="2"/>
       <c r="AQ71" s="5"/>
-      <c r="AR71" s="7"/>
+      <c r="AR71" s="5"/>
       <c r="AS71" s="2"/>
       <c r="AT71" s="2"/>
       <c r="AU71" s="2"/>
@@ -4828,7 +5616,7 @@
       <c r="AO72" s="2"/>
       <c r="AP72" s="2"/>
       <c r="AQ72" s="5"/>
-      <c r="AR72" s="7"/>
+      <c r="AR72" s="5"/>
       <c r="AS72" s="2"/>
       <c r="AT72" s="2"/>
       <c r="AU72" s="2"/>
@@ -4877,7 +5665,7 @@
       <c r="AO73" s="2"/>
       <c r="AP73" s="2"/>
       <c r="AQ73" s="4"/>
-      <c r="AR73" s="7"/>
+      <c r="AR73" s="5"/>
       <c r="AS73" s="2"/>
       <c r="AT73" s="2"/>
       <c r="AU73" s="2"/>
@@ -4925,7 +5713,7 @@
       <c r="AO74" s="2"/>
       <c r="AP74" s="2"/>
       <c r="AQ74" s="4"/>
-      <c r="AR74" s="7"/>
+      <c r="AR74" s="5"/>
       <c r="AS74" s="2"/>
       <c r="AT74" s="2"/>
       <c r="AU74" s="2"/>
@@ -4967,7 +5755,7 @@
       <c r="AO75" s="2"/>
       <c r="AP75" s="2"/>
       <c r="AQ75" s="4"/>
-      <c r="AR75" s="7"/>
+      <c r="AR75" s="5"/>
       <c r="AS75" s="2"/>
       <c r="AT75" s="2"/>
       <c r="AU75" s="2"/>
@@ -5005,7 +5793,7 @@
       <c r="AO76" s="2"/>
       <c r="AP76" s="2"/>
       <c r="AQ76" s="4"/>
-      <c r="AR76" s="7"/>
+      <c r="AR76" s="5"/>
       <c r="AS76" s="2"/>
       <c r="AT76" s="2"/>
       <c r="AU76" s="2"/>
@@ -5048,7 +5836,7 @@
       <c r="AO77" s="2"/>
       <c r="AP77" s="2"/>
       <c r="AQ77" s="4"/>
-      <c r="AR77" s="7"/>
+      <c r="AR77" s="5"/>
       <c r="AS77" s="2"/>
       <c r="AT77" s="2"/>
       <c r="AU77" s="2"/>
@@ -5056,7 +5844,7 @@
       <c r="AW77" s="2"/>
       <c r="AX77" s="2"/>
     </row>
-    <row r="78" spans="1:50" ht="16">
+    <row r="78" spans="1:50" ht="34">
       <c r="A78" s="2"/>
       <c r="B78" s="3">
         <v>70</v>
@@ -5086,7 +5874,7 @@
       <c r="AO78" s="2"/>
       <c r="AP78" s="2"/>
       <c r="AQ78" s="4"/>
-      <c r="AR78" s="7"/>
+      <c r="AR78" s="5"/>
       <c r="AS78" s="2"/>
       <c r="AT78" s="2"/>
       <c r="AU78" s="2"/>
@@ -5094,7 +5882,7 @@
       <c r="AW78" s="2"/>
       <c r="AX78" s="2"/>
     </row>
-    <row r="79" spans="1:50" ht="16">
+    <row r="79" spans="1:50" ht="34">
       <c r="A79" s="2"/>
       <c r="B79" s="3">
         <v>70</v>
@@ -5125,7 +5913,7 @@
       <c r="AO79" s="2"/>
       <c r="AP79" s="2"/>
       <c r="AQ79" s="4"/>
-      <c r="AR79" s="7"/>
+      <c r="AR79" s="5"/>
       <c r="AS79" s="2"/>
       <c r="AT79" s="2"/>
       <c r="AU79" s="2"/>
@@ -5133,7 +5921,7 @@
       <c r="AW79" s="2"/>
       <c r="AX79" s="2"/>
     </row>
-    <row r="80" spans="1:50" ht="16">
+    <row r="80" spans="1:50" ht="34">
       <c r="A80" s="2"/>
       <c r="B80" s="3">
         <v>70</v>
@@ -5175,7 +5963,7 @@
       <c r="AO80" s="2"/>
       <c r="AP80" s="2"/>
       <c r="AQ80" s="4"/>
-      <c r="AR80" s="7"/>
+      <c r="AR80" s="5"/>
       <c r="AS80" s="2"/>
       <c r="AT80" s="2"/>
       <c r="AU80" s="2"/>
@@ -5214,7 +6002,7 @@
       <c r="AO81" s="2"/>
       <c r="AP81" s="2"/>
       <c r="AQ81" s="4"/>
-      <c r="AR81" s="7"/>
+      <c r="AR81" s="5"/>
       <c r="AS81" s="2"/>
       <c r="AT81" s="2"/>
       <c r="AU81" s="2"/>
@@ -5222,7 +6010,7 @@
       <c r="AW81" s="2"/>
       <c r="AX81" s="2"/>
     </row>
-    <row r="82" spans="1:50" ht="16">
+    <row r="82" spans="1:50" ht="34">
       <c r="A82" s="2"/>
       <c r="B82" s="3">
         <v>70</v>
@@ -5252,7 +6040,7 @@
       <c r="AO82" s="2"/>
       <c r="AP82" s="2"/>
       <c r="AQ82" s="4"/>
-      <c r="AR82" s="7"/>
+      <c r="AR82" s="5"/>
       <c r="AS82" s="2"/>
       <c r="AT82" s="2"/>
       <c r="AU82" s="2"/>
@@ -5291,7 +6079,7 @@
       <c r="AO83" s="2"/>
       <c r="AP83" s="2"/>
       <c r="AQ83" s="4"/>
-      <c r="AR83" s="7"/>
+      <c r="AR83" s="5"/>
       <c r="AS83" s="2"/>
       <c r="AT83" s="2"/>
       <c r="AU83" s="2"/>
@@ -5299,7 +6087,7 @@
       <c r="AW83" s="2"/>
       <c r="AX83" s="2"/>
     </row>
-    <row r="84" spans="1:50" ht="16">
+    <row r="84" spans="1:50" ht="68">
       <c r="A84" s="2"/>
       <c r="B84" s="3">
         <v>70</v>
@@ -5328,7 +6116,7 @@
       <c r="AO84" s="2"/>
       <c r="AP84" s="2"/>
       <c r="AQ84" s="4"/>
-      <c r="AR84" s="7"/>
+      <c r="AR84" s="5"/>
       <c r="AS84" s="2"/>
       <c r="AT84" s="2"/>
       <c r="AU84" s="2"/>
@@ -5336,7 +6124,7 @@
       <c r="AW84" s="2"/>
       <c r="AX84" s="2"/>
     </row>
-    <row r="85" spans="1:50" ht="16">
+    <row r="85" spans="1:50" ht="51">
       <c r="A85" s="2"/>
       <c r="B85" s="3">
         <v>70</v>
@@ -5365,7 +6153,7 @@
       <c r="AO85" s="2"/>
       <c r="AP85" s="2"/>
       <c r="AQ85" s="4"/>
-      <c r="AR85" s="7"/>
+      <c r="AR85" s="5"/>
       <c r="AS85" s="2"/>
       <c r="AT85" s="2"/>
       <c r="AU85" s="2"/>
@@ -5373,7 +6161,7 @@
       <c r="AW85" s="2"/>
       <c r="AX85" s="2"/>
     </row>
-    <row r="86" spans="1:50" ht="16">
+    <row r="86" spans="1:50" ht="34">
       <c r="A86" s="2"/>
       <c r="B86" s="3">
         <v>70</v>
@@ -5404,7 +6192,7 @@
       <c r="AO86" s="2"/>
       <c r="AP86" s="2"/>
       <c r="AQ86" s="4"/>
-      <c r="AR86" s="7"/>
+      <c r="AR86" s="5"/>
       <c r="AS86" s="2"/>
       <c r="AT86" s="2"/>
       <c r="AU86" s="2"/>
@@ -5412,7 +6200,7 @@
       <c r="AW86" s="2"/>
       <c r="AX86" s="2"/>
     </row>
-    <row r="87" spans="1:50" ht="16">
+    <row r="87" spans="1:50" ht="34">
       <c r="A87" s="2"/>
       <c r="B87" s="3">
         <v>70</v>
@@ -5441,7 +6229,7 @@
       <c r="AO87" s="2"/>
       <c r="AP87" s="2"/>
       <c r="AQ87" s="4"/>
-      <c r="AR87" s="7"/>
+      <c r="AR87" s="5"/>
       <c r="AS87" s="2"/>
       <c r="AT87" s="2"/>
       <c r="AU87" s="2"/>
@@ -5481,7 +6269,7 @@
       <c r="AO88" s="2"/>
       <c r="AP88" s="2"/>
       <c r="AQ88" s="4"/>
-      <c r="AR88" s="7"/>
+      <c r="AR88" s="5"/>
       <c r="AS88" s="2"/>
       <c r="AT88" s="2"/>
       <c r="AU88" s="2"/>
@@ -5494,19 +6282,29 @@
       <c r="B89" s="3">
         <v>73</v>
       </c>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="3"/>
+      <c r="C89" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>299</v>
+      </c>
       <c r="H89" s="3"/>
       <c r="I89" s="4"/>
+      <c r="J89" t="b">
+        <v>1</v>
+      </c>
       <c r="U89" s="1"/>
       <c r="V89" s="1"/>
       <c r="AO89" s="2"/>
       <c r="AP89" s="2"/>
       <c r="AQ89" s="4"/>
-      <c r="AR89" s="7"/>
+      <c r="AR89" s="5"/>
       <c r="AS89" s="2"/>
       <c r="AT89" s="2"/>
       <c r="AU89" s="2"/>
@@ -5514,21 +6312,34 @@
       <c r="AW89" s="2"/>
       <c r="AX89" s="2"/>
     </row>
-    <row r="90" spans="1:50" ht="16">
+    <row r="90" spans="1:50" ht="85">
       <c r="A90" s="2"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
+      <c r="B90" s="3">
+        <v>73</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="F90" s="2"/>
-      <c r="G90" s="3"/>
+      <c r="G90" s="3" t="s">
+        <v>302</v>
+      </c>
       <c r="H90" s="3"/>
       <c r="I90" s="4"/>
       <c r="R90" s="1"/>
+      <c r="Y90" t="b">
+        <v>1</v>
+      </c>
       <c r="AO90" s="2"/>
       <c r="AP90" s="2"/>
       <c r="AQ90" s="4"/>
-      <c r="AR90" s="7"/>
+      <c r="AR90" s="5"/>
       <c r="AS90" s="2"/>
       <c r="AT90" s="2"/>
       <c r="AU90" s="2"/>
@@ -5536,21 +6347,34 @@
       <c r="AW90" s="2"/>
       <c r="AX90" s="2"/>
     </row>
-    <row r="91" spans="1:50" ht="16">
+    <row r="91" spans="1:50" ht="102">
       <c r="A91" s="2"/>
-      <c r="B91" s="14"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
+      <c r="B91" s="3">
+        <v>73</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>303</v>
+      </c>
       <c r="F91" s="2"/>
-      <c r="G91" s="14"/>
-      <c r="H91" s="14"/>
+      <c r="G91" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="H91" s="13"/>
       <c r="I91" s="4"/>
       <c r="R91" s="1"/>
+      <c r="AF91" t="b">
+        <v>1</v>
+      </c>
       <c r="AO91" s="2"/>
       <c r="AP91" s="2"/>
       <c r="AQ91" s="4"/>
-      <c r="AR91" s="7"/>
+      <c r="AR91" s="5"/>
       <c r="AS91" s="2"/>
       <c r="AT91" s="2"/>
       <c r="AU91" s="2"/>
@@ -5558,23 +6382,36 @@
       <c r="AW91" s="2"/>
       <c r="AX91" s="2"/>
     </row>
-    <row r="92" spans="1:50" ht="16">
+    <row r="92" spans="1:50" ht="68">
       <c r="A92" s="2"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
+      <c r="B92" s="3">
+        <v>73</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>306</v>
+      </c>
       <c r="F92" s="2"/>
-      <c r="G92" s="3"/>
+      <c r="G92" s="3" t="s">
+        <v>308</v>
+      </c>
       <c r="H92" s="3"/>
       <c r="I92" s="4"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
       <c r="N92" s="1"/>
+      <c r="Y92" t="b">
+        <v>1</v>
+      </c>
       <c r="AO92" s="2"/>
       <c r="AP92" s="2"/>
       <c r="AQ92" s="4"/>
-      <c r="AR92" s="7"/>
+      <c r="AR92" s="5"/>
       <c r="AS92" s="2"/>
       <c r="AT92" s="2"/>
       <c r="AU92" s="2"/>
@@ -5582,21 +6419,34 @@
       <c r="AW92" s="2"/>
       <c r="AX92" s="2"/>
     </row>
-    <row r="93" spans="1:50" ht="16">
+    <row r="93" spans="1:50" ht="34">
       <c r="A93" s="2"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
+      <c r="B93" s="3">
+        <v>73</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>309</v>
+      </c>
       <c r="F93" s="2"/>
-      <c r="G93" s="3"/>
+      <c r="G93" s="3" t="s">
+        <v>311</v>
+      </c>
       <c r="H93" s="3"/>
       <c r="I93" s="4"/>
       <c r="K93" s="1"/>
+      <c r="Y93" t="b">
+        <v>1</v>
+      </c>
       <c r="AO93" s="2"/>
       <c r="AP93" s="2"/>
       <c r="AQ93" s="4"/>
-      <c r="AR93" s="7"/>
+      <c r="AR93" s="5"/>
       <c r="AS93" s="2"/>
       <c r="AT93" s="2"/>
       <c r="AU93" s="2"/>
@@ -5604,21 +6454,34 @@
       <c r="AW93" s="2"/>
       <c r="AX93" s="2"/>
     </row>
-    <row r="94" spans="1:50" ht="16">
+    <row r="94" spans="1:50" ht="34">
       <c r="A94" s="2"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
+      <c r="B94" s="3">
+        <v>73</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>312</v>
+      </c>
       <c r="F94" s="2"/>
-      <c r="G94" s="3"/>
+      <c r="G94" s="3" t="s">
+        <v>314</v>
+      </c>
       <c r="H94" s="3"/>
       <c r="I94" s="4"/>
       <c r="K94" s="1"/>
+      <c r="Y94" t="b">
+        <v>1</v>
+      </c>
       <c r="AO94" s="2"/>
       <c r="AP94" s="2"/>
       <c r="AQ94" s="4"/>
-      <c r="AR94" s="7"/>
+      <c r="AR94" s="5"/>
       <c r="AS94" s="2"/>
       <c r="AT94" s="2"/>
       <c r="AU94" s="2"/>
@@ -5626,21 +6489,34 @@
       <c r="AW94" s="2"/>
       <c r="AX94" s="2"/>
     </row>
-    <row r="95" spans="1:50" ht="16">
+    <row r="95" spans="1:50" ht="34">
       <c r="A95" s="2"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
+      <c r="B95" s="3">
+        <v>73</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>315</v>
+      </c>
       <c r="F95" s="2"/>
-      <c r="G95" s="3"/>
+      <c r="G95" s="3" t="s">
+        <v>317</v>
+      </c>
       <c r="H95" s="3"/>
       <c r="I95" s="4"/>
       <c r="K95" s="1"/>
+      <c r="Y95" t="b">
+        <v>1</v>
+      </c>
       <c r="AO95" s="2"/>
       <c r="AP95" s="2"/>
       <c r="AQ95" s="4"/>
-      <c r="AR95" s="7"/>
+      <c r="AR95" s="5"/>
       <c r="AS95" s="2"/>
       <c r="AT95" s="2"/>
       <c r="AU95" s="2"/>
@@ -5648,20 +6524,33 @@
       <c r="AW95" s="2"/>
       <c r="AX95" s="2"/>
     </row>
-    <row r="96" spans="1:50" ht="16">
+    <row r="96" spans="1:50" ht="68">
       <c r="A96" s="2"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
+      <c r="B96" s="3">
+        <v>73</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>318</v>
+      </c>
       <c r="F96" s="2"/>
-      <c r="G96" s="3"/>
+      <c r="G96" s="3" t="s">
+        <v>320</v>
+      </c>
       <c r="H96" s="3"/>
       <c r="I96" s="4"/>
+      <c r="J96" t="b">
+        <v>1</v>
+      </c>
       <c r="AO96" s="2"/>
       <c r="AP96" s="2"/>
       <c r="AQ96" s="4"/>
-      <c r="AR96" s="7"/>
+      <c r="AR96" s="5"/>
       <c r="AS96" s="2"/>
       <c r="AT96" s="2"/>
       <c r="AU96" s="2"/>
@@ -5669,21 +6558,34 @@
       <c r="AW96" s="2"/>
       <c r="AX96" s="2"/>
     </row>
-    <row r="97" spans="1:50" ht="16">
+    <row r="97" spans="1:50" ht="51">
       <c r="A97" s="2"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
+      <c r="B97" s="3">
+        <v>75</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="F97" s="2"/>
-      <c r="G97" s="3"/>
+      <c r="G97" s="3" t="s">
+        <v>322</v>
+      </c>
       <c r="H97" s="3"/>
       <c r="I97" s="4"/>
       <c r="K97" s="1"/>
+      <c r="AF97" t="b">
+        <v>1</v>
+      </c>
       <c r="AO97" s="2"/>
       <c r="AP97" s="2"/>
       <c r="AQ97" s="4"/>
-      <c r="AR97" s="7"/>
+      <c r="AR97" s="5"/>
       <c r="AS97" s="2"/>
       <c r="AT97" s="2"/>
       <c r="AU97" s="2"/>
@@ -5691,21 +6593,39 @@
       <c r="AW97" s="2"/>
       <c r="AX97" s="2"/>
     </row>
-    <row r="98" spans="1:50" ht="16">
+    <row r="98" spans="1:50" ht="34">
       <c r="A98" s="2"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
+      <c r="B98" s="3">
+        <v>75</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>323</v>
+      </c>
       <c r="F98" s="2"/>
-      <c r="G98" s="3"/>
+      <c r="G98" s="3" t="s">
+        <v>324</v>
+      </c>
       <c r="H98" s="3"/>
       <c r="I98" s="4"/>
-      <c r="K98" s="1"/>
+      <c r="K98" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O98" t="b">
+        <v>1</v>
+      </c>
+      <c r="P98" t="b">
+        <v>1</v>
+      </c>
       <c r="AO98" s="2"/>
       <c r="AP98" s="2"/>
       <c r="AQ98" s="4"/>
-      <c r="AR98" s="7"/>
+      <c r="AR98" s="5"/>
       <c r="AS98" s="2"/>
       <c r="AT98" s="2"/>
       <c r="AU98" s="2"/>
@@ -5713,82 +6633,131 @@
       <c r="AW98" s="2"/>
       <c r="AX98" s="2"/>
     </row>
-    <row r="99" spans="1:50" ht="16">
+    <row r="99" spans="1:50" ht="51">
       <c r="A99" s="2"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
+      <c r="B99" s="3">
+        <v>75</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>325</v>
+      </c>
       <c r="F99" s="2"/>
-      <c r="G99" s="3"/>
+      <c r="G99" s="3" t="s">
+        <v>329</v>
+      </c>
       <c r="H99" s="3"/>
       <c r="I99" s="4"/>
       <c r="K99" s="1"/>
+      <c r="O99" t="b">
+        <v>1</v>
+      </c>
       <c r="AO99" s="2"/>
       <c r="AP99" s="2"/>
       <c r="AQ99" s="4"/>
-      <c r="AR99" s="7"/>
+      <c r="AR99" s="5"/>
       <c r="AS99" s="2"/>
       <c r="AT99" s="2"/>
       <c r="AU99" s="2"/>
       <c r="AV99" s="2"/>
       <c r="AW99" s="2"/>
-      <c r="AX99" s="7"/>
-    </row>
-    <row r="100" spans="1:50" ht="16">
+      <c r="AX99" s="5"/>
+    </row>
+    <row r="100" spans="1:50" ht="68">
       <c r="A100" s="2"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
+      <c r="B100" s="3">
+        <v>75</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>330</v>
+      </c>
       <c r="F100" s="2"/>
-      <c r="G100" s="3"/>
+      <c r="G100" s="3" t="s">
+        <v>332</v>
+      </c>
       <c r="H100" s="3"/>
       <c r="I100" s="4"/>
       <c r="K100" s="1"/>
+      <c r="Y100" t="b">
+        <v>1</v>
+      </c>
       <c r="AO100" s="2"/>
       <c r="AP100" s="2"/>
       <c r="AQ100" s="4"/>
-      <c r="AR100" s="7"/>
+      <c r="AR100" s="5"/>
       <c r="AS100" s="2"/>
       <c r="AT100" s="2"/>
       <c r="AU100" s="2"/>
       <c r="AV100" s="2"/>
       <c r="AW100" s="2"/>
-      <c r="AX100" s="7"/>
-    </row>
-    <row r="101" spans="1:50" ht="16">
+      <c r="AX100" s="5"/>
+    </row>
+    <row r="101" spans="1:50" ht="68">
       <c r="A101" s="2"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
+      <c r="B101" s="3">
+        <v>75</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="F101" s="2"/>
-      <c r="G101" s="3"/>
+      <c r="G101" s="3" t="s">
+        <v>334</v>
+      </c>
       <c r="H101" s="3"/>
       <c r="I101" s="4"/>
       <c r="K101" s="1"/>
       <c r="P101" s="1"/>
+      <c r="Q101" t="b">
+        <v>1</v>
+      </c>
       <c r="AF101" s="1"/>
       <c r="AO101" s="2"/>
       <c r="AP101" s="2"/>
       <c r="AQ101" s="4"/>
-      <c r="AR101" s="7"/>
+      <c r="AR101" s="5"/>
       <c r="AS101" s="2"/>
       <c r="AT101" s="2"/>
       <c r="AU101" s="2"/>
       <c r="AV101" s="2"/>
       <c r="AW101" s="2"/>
-      <c r="AX101" s="7"/>
-    </row>
-    <row r="102" spans="1:50" ht="16">
+      <c r="AX101" s="5"/>
+    </row>
+    <row r="102" spans="1:50" ht="34">
       <c r="A102" s="2"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
+      <c r="B102" s="3">
+        <v>75</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>336</v>
+      </c>
       <c r="F102" s="2"/>
-      <c r="G102" s="3"/>
+      <c r="G102" s="3" t="s">
+        <v>338</v>
+      </c>
       <c r="H102" s="3"/>
       <c r="I102" s="4"/>
       <c r="K102" s="1"/>
@@ -5796,22 +6765,32 @@
       <c r="AO102" s="2"/>
       <c r="AP102" s="2"/>
       <c r="AQ102" s="4"/>
-      <c r="AR102" s="7"/>
+      <c r="AR102" s="5"/>
       <c r="AS102" s="2"/>
       <c r="AT102" s="2"/>
       <c r="AU102" s="2"/>
       <c r="AV102" s="2"/>
       <c r="AW102" s="2"/>
-      <c r="AX102" s="7"/>
-    </row>
-    <row r="103" spans="1:50" ht="16">
+      <c r="AX102" s="5"/>
+    </row>
+    <row r="103" spans="1:50" ht="68">
       <c r="A103" s="2"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
+      <c r="B103" s="3">
+        <v>75</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>339</v>
+      </c>
       <c r="F103" s="2"/>
-      <c r="G103" s="3"/>
+      <c r="G103" s="3" t="s">
+        <v>341</v>
+      </c>
       <c r="H103" s="3"/>
       <c r="I103" s="4"/>
       <c r="J103" s="1"/>
@@ -5821,1015 +6800,1693 @@
       <c r="AO103" s="2"/>
       <c r="AP103" s="2"/>
       <c r="AQ103" s="4"/>
-      <c r="AR103" s="7"/>
+      <c r="AR103" s="5"/>
       <c r="AS103" s="2"/>
       <c r="AT103" s="2"/>
       <c r="AU103" s="2"/>
       <c r="AV103" s="2"/>
       <c r="AW103" s="2"/>
-      <c r="AX103" s="7"/>
-    </row>
-    <row r="104" spans="1:50" ht="16">
+      <c r="AX103" s="5"/>
+    </row>
+    <row r="104" spans="1:50" ht="68">
       <c r="A104" s="2"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
+      <c r="B104" s="3">
+        <v>75</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>342</v>
+      </c>
       <c r="F104" s="2"/>
-      <c r="G104" s="3"/>
+      <c r="G104" s="3" t="s">
+        <v>344</v>
+      </c>
       <c r="H104" s="3"/>
       <c r="I104" s="4"/>
       <c r="K104" s="1"/>
+      <c r="Q104" t="b">
+        <v>1</v>
+      </c>
       <c r="X104" s="1"/>
       <c r="AF104" s="1"/>
       <c r="AO104" s="2"/>
       <c r="AP104" s="2"/>
       <c r="AQ104" s="5"/>
-      <c r="AR104" s="7"/>
+      <c r="AR104" s="5"/>
       <c r="AS104" s="2"/>
       <c r="AT104" s="2"/>
       <c r="AU104" s="2"/>
       <c r="AV104" s="2"/>
       <c r="AW104" s="2"/>
-      <c r="AX104" s="7"/>
-    </row>
-    <row r="105" spans="1:50" ht="16">
+      <c r="AX104" s="5"/>
+    </row>
+    <row r="105" spans="1:50" ht="17">
       <c r="A105" s="2"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
+      <c r="B105" s="3">
+        <v>75</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>345</v>
+      </c>
       <c r="F105" s="2"/>
-      <c r="G105" s="3"/>
+      <c r="G105" s="3" t="s">
+        <v>347</v>
+      </c>
       <c r="H105" s="3"/>
       <c r="I105" s="4"/>
       <c r="K105" s="1"/>
-      <c r="AF105" s="1"/>
+      <c r="AF105" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="AO105" s="2"/>
       <c r="AP105" s="2"/>
       <c r="AQ105" s="5"/>
-      <c r="AR105" s="7"/>
+      <c r="AR105" s="5"/>
       <c r="AS105" s="2"/>
       <c r="AT105" s="2"/>
       <c r="AU105" s="2"/>
       <c r="AV105" s="2"/>
       <c r="AW105" s="2"/>
-      <c r="AX105" s="7"/>
-    </row>
-    <row r="106" spans="1:50" ht="16">
+      <c r="AX105" s="5"/>
+    </row>
+    <row r="106" spans="1:50" ht="51">
       <c r="A106" s="2"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
+      <c r="B106" s="3">
+        <v>76</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E106" s="2" t="str">
+        <f t="shared" ref="E106:G124" si="3">RIGHT(C106,LEN(C106)-SEARCH(" ",C106,1))</f>
+        <v>Ludwigshafen – Saarbrücken – Grenze D/F Teilmaßnahme 1</v>
+      </c>
       <c r="F106" s="2"/>
-      <c r="G106" s="3"/>
+      <c r="G106" s="3" t="s">
+        <v>350</v>
+      </c>
       <c r="H106" s="3"/>
       <c r="I106" s="4"/>
+      <c r="AA106" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB106">
+        <v>200</v>
+      </c>
       <c r="AG106" s="1"/>
       <c r="AH106" s="1"/>
       <c r="AI106" s="1"/>
       <c r="AO106" s="2"/>
       <c r="AP106" s="2"/>
       <c r="AQ106" s="4"/>
-      <c r="AR106" s="7"/>
+      <c r="AR106" s="5"/>
       <c r="AS106" s="2"/>
       <c r="AT106" s="2"/>
       <c r="AU106" s="2"/>
       <c r="AV106" s="2"/>
       <c r="AW106" s="2"/>
-      <c r="AX106" s="7"/>
-    </row>
-    <row r="107" spans="1:50" ht="16">
+      <c r="AX106" s="5"/>
+    </row>
+    <row r="107" spans="1:50" ht="51">
       <c r="A107" s="2"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
+      <c r="B107" s="3">
+        <v>76</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E107" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Ludwigshafen – Saarbrücken – Grenze D/F Teilmaßnahme 2</v>
+      </c>
       <c r="F107" s="2"/>
-      <c r="G107" s="3"/>
+      <c r="G107" s="3" t="s">
+        <v>353</v>
+      </c>
       <c r="H107" s="3"/>
       <c r="I107" s="4"/>
       <c r="K107" s="1"/>
       <c r="Z107" s="1"/>
+      <c r="AA107" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB107">
+        <v>230</v>
+      </c>
       <c r="AO107" s="2"/>
       <c r="AP107" s="2"/>
       <c r="AQ107" s="5"/>
-      <c r="AR107" s="7"/>
+      <c r="AR107" s="5"/>
       <c r="AS107" s="2"/>
       <c r="AT107" s="2"/>
       <c r="AU107" s="2"/>
       <c r="AV107" s="2"/>
       <c r="AW107" s="2"/>
-      <c r="AX107" s="7"/>
-    </row>
-    <row r="108" spans="1:50" ht="16">
+      <c r="AX107" s="5"/>
+    </row>
+    <row r="108" spans="1:50" ht="51">
       <c r="A108" s="2"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
+      <c r="B108" s="3">
+        <v>76</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E108" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Ludwigshafen – Saarbrücken – Grenze D/F Teilmaßnahme 3</v>
+      </c>
       <c r="F108" s="2"/>
-      <c r="G108" s="3"/>
+      <c r="G108" s="3" t="s">
+        <v>356</v>
+      </c>
       <c r="H108" s="3"/>
       <c r="I108" s="4"/>
       <c r="L108" s="1"/>
+      <c r="AA108" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB108">
+        <v>130</v>
+      </c>
       <c r="AO108" s="2"/>
       <c r="AP108" s="2"/>
       <c r="AQ108" s="4"/>
-      <c r="AR108" s="7"/>
+      <c r="AR108" s="5"/>
       <c r="AS108" s="2"/>
       <c r="AT108" s="2"/>
       <c r="AU108" s="2"/>
       <c r="AV108" s="2"/>
       <c r="AW108" s="2"/>
-      <c r="AX108" s="7"/>
-    </row>
-    <row r="109" spans="1:50" ht="16">
+      <c r="AX108" s="5"/>
+    </row>
+    <row r="109" spans="1:50" ht="51">
       <c r="A109" s="2"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
+      <c r="B109" s="3">
+        <v>76</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E109" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Ludwigshafen – Saarbrücken – Grenze D/F Teilmaßnahme 4</v>
+      </c>
       <c r="F109" s="2"/>
-      <c r="G109" s="3"/>
+      <c r="G109" s="3" t="s">
+        <v>362</v>
+      </c>
       <c r="H109" s="3"/>
       <c r="I109" s="4"/>
       <c r="S109" s="1"/>
+      <c r="AA109" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB109">
+        <v>130</v>
+      </c>
       <c r="AO109" s="2"/>
       <c r="AP109" s="2"/>
       <c r="AQ109" s="4"/>
-      <c r="AR109" s="7"/>
+      <c r="AR109" s="5"/>
       <c r="AS109" s="2"/>
       <c r="AT109" s="2"/>
       <c r="AU109" s="2"/>
       <c r="AV109" s="2"/>
       <c r="AW109" s="2"/>
-      <c r="AX109" s="7"/>
-    </row>
-    <row r="110" spans="1:50" ht="16">
+      <c r="AX109" s="5"/>
+    </row>
+    <row r="110" spans="1:50" ht="51">
       <c r="A110" s="2"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
+      <c r="B110" s="3">
+        <v>76</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="E110" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Ludwigshafen – Saarbrücken – Grenze D/F Teilmaßnahme 5</v>
+      </c>
       <c r="F110" s="2"/>
-      <c r="G110" s="3"/>
+      <c r="G110" s="3" t="s">
+        <v>361</v>
+      </c>
       <c r="H110" s="3"/>
       <c r="I110" s="4"/>
       <c r="K110" s="1"/>
+      <c r="P110" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA110" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB110">
+        <v>160</v>
+      </c>
       <c r="AO110" s="2"/>
       <c r="AP110" s="2"/>
       <c r="AQ110" s="4"/>
-      <c r="AR110" s="7"/>
+      <c r="AR110" s="5"/>
       <c r="AS110" s="2"/>
       <c r="AT110" s="2"/>
       <c r="AU110" s="2"/>
       <c r="AV110" s="2"/>
       <c r="AW110" s="2"/>
-      <c r="AX110" s="7"/>
-    </row>
-    <row r="111" spans="1:50" ht="16">
+      <c r="AX110" s="5"/>
+    </row>
+    <row r="111" spans="1:50" ht="51">
       <c r="A111" s="2"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
+      <c r="B111" s="3">
+        <v>76</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E111" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Ludwigshafen – Saarbrücken – Grenze D/F Teilmaßnahme 6</v>
+      </c>
       <c r="F111" s="2"/>
-      <c r="G111" s="3"/>
+      <c r="G111" s="3" t="s">
+        <v>365</v>
+      </c>
       <c r="H111" s="3"/>
       <c r="I111" s="4"/>
       <c r="K111" s="1"/>
-      <c r="S111" s="1"/>
+      <c r="S111" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="U111" s="1"/>
       <c r="AO111" s="2"/>
       <c r="AP111" s="2"/>
       <c r="AQ111" s="4"/>
-      <c r="AR111" s="7"/>
+      <c r="AR111" s="5"/>
       <c r="AS111" s="2"/>
       <c r="AT111" s="2"/>
       <c r="AU111" s="2"/>
       <c r="AV111" s="2"/>
       <c r="AW111" s="2"/>
-      <c r="AX111" s="7"/>
-    </row>
-    <row r="112" spans="1:50" ht="16">
+      <c r="AX111" s="5"/>
+    </row>
+    <row r="112" spans="1:50" ht="102">
       <c r="A112" s="2"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
+      <c r="B112" s="3">
+        <v>76</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E112" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Ludwigshafen – Saarbrücken – Grenze D/F Teilmaßnahme 7</v>
+      </c>
       <c r="F112" s="2"/>
-      <c r="G112" s="3"/>
+      <c r="G112" s="3" t="s">
+        <v>366</v>
+      </c>
       <c r="H112" s="3"/>
       <c r="I112" s="4"/>
       <c r="K112" s="1"/>
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
+      <c r="AA112" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB112">
+        <v>230</v>
+      </c>
       <c r="AO112" s="2"/>
       <c r="AP112" s="2"/>
       <c r="AQ112" s="4"/>
-      <c r="AR112" s="7"/>
+      <c r="AR112" s="5"/>
       <c r="AS112" s="2"/>
       <c r="AT112" s="2"/>
       <c r="AU112" s="2"/>
       <c r="AV112" s="2"/>
       <c r="AW112" s="2"/>
-      <c r="AX112" s="7"/>
+      <c r="AX112" s="5"/>
     </row>
     <row r="113" spans="1:50" ht="16">
       <c r="A113" s="2"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
+      <c r="B113" s="3">
+        <v>76</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E113" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Ludwigshafen – Saarbrücken – Grenze D/F Teilmaßnahme 8</v>
+      </c>
       <c r="F113" s="2"/>
-      <c r="G113" s="3"/>
+      <c r="G113" t="s">
+        <v>369</v>
+      </c>
       <c r="H113" s="3"/>
       <c r="I113" s="4"/>
       <c r="K113" s="1"/>
+      <c r="AA113" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB113">
+        <v>120</v>
+      </c>
       <c r="AO113" s="2"/>
       <c r="AP113" s="2"/>
       <c r="AQ113" s="4"/>
-      <c r="AR113" s="7"/>
+      <c r="AR113" s="5"/>
       <c r="AS113" s="2"/>
       <c r="AT113" s="2"/>
       <c r="AU113" s="2"/>
       <c r="AV113" s="2"/>
       <c r="AW113" s="2"/>
-      <c r="AX113" s="7"/>
-    </row>
-    <row r="114" spans="1:50" ht="16">
+      <c r="AX113" s="5"/>
+    </row>
+    <row r="114" spans="1:50" ht="51">
       <c r="A114" s="2"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
+      <c r="B114" s="3">
+        <v>76</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E114" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Ludwigshafen – Saarbrücken – Grenze D/F Teilmaßnahme 9</v>
+      </c>
       <c r="F114" s="2"/>
-      <c r="G114" s="3"/>
+      <c r="G114" s="3" t="s">
+        <v>372</v>
+      </c>
       <c r="H114" s="3"/>
       <c r="I114" s="4"/>
       <c r="K114" s="1"/>
       <c r="O114" s="1"/>
+      <c r="AA114" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB114">
+        <v>110</v>
+      </c>
+      <c r="AF114" t="b">
+        <v>1</v>
+      </c>
       <c r="AO114" s="2"/>
       <c r="AP114" s="2"/>
       <c r="AQ114" s="4"/>
-      <c r="AR114" s="7"/>
+      <c r="AR114" s="5"/>
       <c r="AS114" s="2"/>
       <c r="AT114" s="2"/>
       <c r="AU114" s="2"/>
       <c r="AV114" s="2"/>
       <c r="AW114" s="2"/>
-      <c r="AX114" s="7"/>
-    </row>
-    <row r="115" spans="1:50" ht="16">
+      <c r="AX114" s="5"/>
+    </row>
+    <row r="115" spans="1:50" ht="51">
       <c r="A115" s="2"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
+      <c r="B115" s="3">
+        <v>76</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E115" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Ludwigshafen – Saarbrücken – Grenze D/F Teilmaßnahme 10</v>
+      </c>
       <c r="F115" s="2"/>
-      <c r="G115" s="3"/>
+      <c r="G115" s="3" t="s">
+        <v>377</v>
+      </c>
       <c r="H115" s="3"/>
       <c r="I115" s="4"/>
       <c r="K115" s="1"/>
+      <c r="AA115" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB115">
+        <v>160</v>
+      </c>
       <c r="AO115" s="2"/>
       <c r="AP115" s="2"/>
       <c r="AQ115" s="4"/>
-      <c r="AR115" s="7"/>
+      <c r="AR115" s="5"/>
       <c r="AS115" s="2"/>
       <c r="AT115" s="2"/>
       <c r="AU115" s="2"/>
       <c r="AV115" s="2"/>
       <c r="AW115" s="2"/>
-      <c r="AX115" s="7"/>
-    </row>
-    <row r="116" spans="1:50" ht="16">
+      <c r="AX115" s="5"/>
+    </row>
+    <row r="116" spans="1:50" ht="221">
       <c r="A116" s="2"/>
-      <c r="B116" s="3"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
+      <c r="B116" s="3">
+        <v>78</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E116" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Karlsruhe - Basel (BAB-Trasse) Teilmaßnahme 1</v>
+      </c>
       <c r="F116" s="2"/>
-      <c r="G116" s="3"/>
+      <c r="G116" s="3" t="s">
+        <v>380</v>
+      </c>
       <c r="H116" s="3"/>
       <c r="I116" s="4"/>
+      <c r="J116" t="b">
+        <v>1</v>
+      </c>
       <c r="Y116" s="1"/>
       <c r="AO116" s="2"/>
       <c r="AP116" s="2"/>
       <c r="AQ116" s="5"/>
-      <c r="AR116" s="7"/>
+      <c r="AR116" s="5"/>
       <c r="AS116" s="2"/>
       <c r="AT116" s="2"/>
       <c r="AU116" s="2"/>
       <c r="AV116" s="2"/>
       <c r="AW116" s="2"/>
-      <c r="AX116" s="7"/>
+      <c r="AX116" s="5"/>
     </row>
     <row r="117" spans="1:50" ht="16">
       <c r="A117" s="2"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
+      <c r="B117" s="3">
+        <v>78</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="E117" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Karlsruhe - Basel (BAB-Trasse) Teilmaßnahme 2</v>
+      </c>
       <c r="F117" s="2"/>
-      <c r="G117" s="3"/>
+      <c r="G117" s="2" t="s">
+        <v>385</v>
+      </c>
       <c r="H117" s="3"/>
       <c r="I117" s="4"/>
       <c r="K117" s="1"/>
+      <c r="AA117" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB117">
+        <v>250</v>
+      </c>
       <c r="AO117" s="2"/>
       <c r="AP117" s="2"/>
       <c r="AQ117" s="4"/>
-      <c r="AR117" s="7"/>
+      <c r="AR117" s="5"/>
       <c r="AS117" s="2"/>
       <c r="AT117" s="2"/>
       <c r="AU117" s="2"/>
       <c r="AV117" s="2"/>
       <c r="AW117" s="2"/>
-      <c r="AX117" s="7"/>
-    </row>
-    <row r="118" spans="1:50" ht="16">
+      <c r="AX117" s="5"/>
+    </row>
+    <row r="118" spans="1:50" ht="51">
       <c r="A118" s="2"/>
-      <c r="B118" s="3"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
+      <c r="B118" s="3">
+        <v>78</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E118" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Karlsruhe - Basel (BAB-Trasse) Teilmaßnahme 3</v>
+      </c>
       <c r="F118" s="2"/>
-      <c r="G118" s="3"/>
+      <c r="G118" s="3" t="s">
+        <v>386</v>
+      </c>
       <c r="H118" s="3"/>
       <c r="I118" s="4"/>
+      <c r="O118" t="b">
+        <v>1</v>
+      </c>
+      <c r="P118" t="b">
+        <v>1</v>
+      </c>
       <c r="S118" s="1"/>
       <c r="AO118" s="2"/>
       <c r="AP118" s="2"/>
       <c r="AQ118" s="4"/>
-      <c r="AR118" s="7"/>
+      <c r="AR118" s="5"/>
       <c r="AS118" s="2"/>
       <c r="AT118" s="2"/>
       <c r="AU118" s="2"/>
       <c r="AV118" s="2"/>
       <c r="AW118" s="2"/>
-      <c r="AX118" s="7"/>
-    </row>
-    <row r="119" spans="1:50" ht="16">
+      <c r="AX118" s="5"/>
+    </row>
+    <row r="119" spans="1:50" ht="34">
       <c r="A119" s="2"/>
-      <c r="B119" s="3"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
+      <c r="B119" s="3">
+        <v>78</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E119" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Karlsruhe - Basel (BAB-Trasse) Teilmaßnahme 4</v>
+      </c>
       <c r="F119" s="2"/>
-      <c r="G119" s="3"/>
+      <c r="G119" s="3" t="s">
+        <v>393</v>
+      </c>
       <c r="H119" s="3"/>
       <c r="I119" s="4"/>
       <c r="S119" s="1"/>
+      <c r="AA119" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB119">
+        <v>250</v>
+      </c>
       <c r="AO119" s="2"/>
       <c r="AP119" s="2"/>
       <c r="AQ119" s="4"/>
-      <c r="AR119" s="7"/>
+      <c r="AR119" s="5"/>
       <c r="AS119" s="2"/>
       <c r="AT119" s="2"/>
       <c r="AU119" s="2"/>
       <c r="AV119" s="2"/>
       <c r="AW119" s="2"/>
-      <c r="AX119" s="7"/>
-    </row>
-    <row r="120" spans="1:50" ht="16">
+      <c r="AX119" s="5"/>
+    </row>
+    <row r="120" spans="1:50" ht="51">
       <c r="A120" s="2"/>
-      <c r="B120" s="3"/>
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
+      <c r="B120" s="3">
+        <v>78</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E120" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Karlsruhe - Basel (BAB-Trasse) Teilmaßnahme 5</v>
+      </c>
       <c r="F120" s="2"/>
-      <c r="G120" s="3"/>
+      <c r="G120" s="3" t="s">
+        <v>394</v>
+      </c>
       <c r="H120" s="3"/>
       <c r="I120" s="4"/>
       <c r="S120" s="1"/>
+      <c r="AA120" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB120">
+        <v>200</v>
+      </c>
       <c r="AO120" s="2"/>
       <c r="AP120" s="2"/>
       <c r="AQ120" s="4"/>
-      <c r="AR120" s="7"/>
+      <c r="AR120" s="5"/>
       <c r="AS120" s="2"/>
       <c r="AT120" s="2"/>
       <c r="AU120" s="2"/>
       <c r="AV120" s="2"/>
       <c r="AW120" s="2"/>
-      <c r="AX120" s="7"/>
-    </row>
-    <row r="121" spans="1:50" ht="16">
+      <c r="AX120" s="5"/>
+    </row>
+    <row r="121" spans="1:50" ht="85">
       <c r="A121" s="2"/>
-      <c r="B121" s="3"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
+      <c r="B121" s="3">
+        <v>78</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E121" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Karlsruhe - Basel (BAB-Trasse) Teilmaßnahme 6</v>
+      </c>
       <c r="F121" s="2"/>
-      <c r="G121" s="3"/>
+      <c r="G121" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="H121" s="3"/>
       <c r="I121" s="4"/>
+      <c r="Q121" t="b">
+        <v>1</v>
+      </c>
       <c r="S121" s="1"/>
       <c r="AO121" s="2"/>
       <c r="AP121" s="2"/>
       <c r="AQ121" s="4"/>
-      <c r="AR121" s="7"/>
+      <c r="AR121" s="5"/>
       <c r="AS121" s="2"/>
       <c r="AT121" s="2"/>
       <c r="AU121" s="2"/>
       <c r="AV121" s="2"/>
       <c r="AW121" s="2"/>
-      <c r="AX121" s="7"/>
-    </row>
-    <row r="122" spans="1:50" ht="16">
+      <c r="AX121" s="5"/>
+    </row>
+    <row r="122" spans="1:50" ht="153">
       <c r="A122" s="2"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
+      <c r="B122" s="3">
+        <v>78</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E122" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Karlsruhe - Basel (BAB-Trasse) Teilmaßnahme 7</v>
+      </c>
       <c r="F122" s="2"/>
-      <c r="G122" s="3"/>
+      <c r="G122" s="3" t="s">
+        <v>398</v>
+      </c>
       <c r="H122" s="3"/>
       <c r="I122" s="4"/>
       <c r="U122" s="1"/>
       <c r="AO122" s="2"/>
       <c r="AP122" s="2"/>
       <c r="AQ122" s="4"/>
-      <c r="AR122" s="7"/>
+      <c r="AR122" s="5"/>
       <c r="AS122" s="2"/>
       <c r="AT122" s="2"/>
       <c r="AU122" s="2"/>
       <c r="AV122" s="2"/>
       <c r="AW122" s="2"/>
-      <c r="AX122" s="7"/>
-    </row>
-    <row r="123" spans="1:50" ht="16">
+      <c r="AX122" s="5"/>
+    </row>
+    <row r="123" spans="1:50" ht="34">
       <c r="A123" s="2"/>
-      <c r="B123" s="3"/>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
+      <c r="B123" s="3">
+        <v>79</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="E123" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Stuttgart - Singen - Grenze D/CH (Gäubahn) Teilmaßnahme 1</v>
+      </c>
       <c r="F123" s="2"/>
-      <c r="G123" s="3"/>
+      <c r="G123" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="H123" s="3"/>
       <c r="I123" s="4"/>
       <c r="K123" s="1"/>
       <c r="N123" s="1"/>
+      <c r="AA123" t="b">
+        <v>1</v>
+      </c>
       <c r="AO123" s="2"/>
       <c r="AP123" s="2"/>
       <c r="AQ123" s="4"/>
-      <c r="AR123" s="7"/>
+      <c r="AR123" s="5"/>
       <c r="AS123" s="2"/>
       <c r="AT123" s="2"/>
       <c r="AU123" s="2"/>
       <c r="AV123" s="2"/>
       <c r="AW123" s="2"/>
-      <c r="AX123" s="7"/>
-    </row>
-    <row r="124" spans="1:50" ht="16">
+      <c r="AX123" s="5"/>
+    </row>
+    <row r="124" spans="1:50" ht="34">
       <c r="A124" s="2"/>
-      <c r="B124" s="3"/>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
+      <c r="B124" s="3">
+        <v>79</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E124" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Stuttgart - Singen - Grenze D/CH (Gäubahn) Teilmaßnahme 2</v>
+      </c>
       <c r="F124" s="2"/>
-      <c r="G124" s="3"/>
+      <c r="G124" s="3" t="s">
+        <v>410</v>
+      </c>
       <c r="H124" s="3"/>
       <c r="I124" s="4"/>
+      <c r="N124" t="b">
+        <v>1</v>
+      </c>
       <c r="AF124" s="1"/>
       <c r="AO124" s="2"/>
       <c r="AP124" s="2"/>
       <c r="AQ124" s="4"/>
-      <c r="AR124" s="7"/>
+      <c r="AR124" s="5"/>
       <c r="AS124" s="2"/>
       <c r="AT124" s="2"/>
       <c r="AU124" s="2"/>
       <c r="AV124" s="2"/>
       <c r="AW124" s="2"/>
-      <c r="AX124" s="7"/>
-    </row>
-    <row r="125" spans="1:50" ht="16">
+      <c r="AX124" s="5"/>
+    </row>
+    <row r="125" spans="1:50" ht="17">
       <c r="A125" s="2"/>
-      <c r="B125" s="3"/>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
+      <c r="B125" s="3">
+        <v>79</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E125" s="2" t="str">
+        <f t="shared" ref="E125:E127" si="4">RIGHT(C125,LEN(C125)-SEARCH(" ",C125,1))</f>
+        <v>Stuttgart - Singen - Grenze D/CH (Gäubahn) Teilmaßnahme 3</v>
+      </c>
       <c r="F125" s="2"/>
-      <c r="G125" s="3"/>
+      <c r="G125" s="3" t="s">
+        <v>411</v>
+      </c>
       <c r="H125" s="3"/>
       <c r="I125" s="4"/>
       <c r="Y125" s="1"/>
+      <c r="AF125" t="b">
+        <v>1</v>
+      </c>
       <c r="AO125" s="2"/>
       <c r="AP125" s="2"/>
       <c r="AQ125" s="5"/>
-      <c r="AR125" s="7"/>
+      <c r="AR125" s="5"/>
       <c r="AS125" s="2"/>
       <c r="AT125" s="2"/>
       <c r="AU125" s="2"/>
       <c r="AV125" s="2"/>
       <c r="AW125" s="2"/>
-      <c r="AX125" s="7"/>
-    </row>
-    <row r="126" spans="1:50" ht="16">
+      <c r="AX125" s="5"/>
+    </row>
+    <row r="126" spans="1:50" ht="34">
       <c r="A126" s="2"/>
-      <c r="B126" s="3"/>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
+      <c r="B126" s="3">
+        <v>79</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E126" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Stuttgart - Singen - Grenze D/CH (Gäubahn) Teilmaßnahme 4</v>
+      </c>
       <c r="F126" s="2"/>
-      <c r="G126" s="3"/>
+      <c r="G126" s="3" t="s">
+        <v>412</v>
+      </c>
       <c r="H126" s="3"/>
       <c r="I126" s="4"/>
+      <c r="N126" t="b">
+        <v>1</v>
+      </c>
       <c r="U126" s="1"/>
       <c r="AO126" s="2"/>
       <c r="AP126" s="2"/>
       <c r="AQ126" s="4"/>
-      <c r="AR126" s="7"/>
+      <c r="AR126" s="5"/>
       <c r="AS126" s="2"/>
       <c r="AT126" s="2"/>
       <c r="AU126" s="2"/>
       <c r="AV126" s="2"/>
       <c r="AW126" s="2"/>
-      <c r="AX126" s="7"/>
-    </row>
-    <row r="127" spans="1:50" ht="16">
+      <c r="AX126" s="5"/>
+    </row>
+    <row r="127" spans="1:50" ht="34">
       <c r="A127" s="2"/>
-      <c r="B127" s="3"/>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
+      <c r="B127" s="3">
+        <v>79</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E127" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Stuttgart - Singen - Grenze D/CH (Gäubahn) Teilmaßnahme 5</v>
+      </c>
       <c r="F127" s="2"/>
-      <c r="G127" s="3"/>
+      <c r="G127" s="3" t="s">
+        <v>413</v>
+      </c>
       <c r="H127" s="3"/>
       <c r="I127" s="4"/>
+      <c r="N127" t="b">
+        <v>1</v>
+      </c>
       <c r="O127" s="1"/>
       <c r="AO127" s="2"/>
       <c r="AP127" s="2"/>
       <c r="AQ127" s="4"/>
-      <c r="AR127" s="7"/>
+      <c r="AR127" s="5"/>
       <c r="AS127" s="2"/>
       <c r="AT127" s="2"/>
       <c r="AU127" s="2"/>
       <c r="AV127" s="2"/>
       <c r="AW127" s="2"/>
-      <c r="AX127" s="7"/>
-    </row>
-    <row r="128" spans="1:50" ht="16">
+      <c r="AX127" s="5"/>
+    </row>
+    <row r="128" spans="1:50" ht="68">
       <c r="A128" s="2"/>
-      <c r="B128" s="3"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
+      <c r="B128" s="3">
+        <v>79</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E128" s="2" t="str">
+        <f t="shared" ref="E128:E143" si="5">RIGHT(C128,LEN(C128)-SEARCH(" ",C128,1))</f>
+        <v>Stuttgart - Singen - Grenze D/CH (Gäubahn) Teilmaßnahme 6</v>
+      </c>
       <c r="F128" s="2"/>
-      <c r="G128" s="3"/>
+      <c r="G128" s="3" t="s">
+        <v>420</v>
+      </c>
       <c r="H128" s="3"/>
       <c r="I128" s="4"/>
       <c r="K128" s="1"/>
+      <c r="Q128" t="b">
+        <v>1</v>
+      </c>
       <c r="AO128" s="2"/>
       <c r="AP128" s="2"/>
       <c r="AQ128" s="4"/>
-      <c r="AR128" s="7"/>
+      <c r="AR128" s="5"/>
       <c r="AS128" s="2"/>
       <c r="AT128" s="2"/>
       <c r="AU128" s="2"/>
       <c r="AV128" s="2"/>
       <c r="AW128" s="2"/>
-      <c r="AX128" s="7"/>
-    </row>
-    <row r="129" spans="1:50" ht="16">
+      <c r="AX128" s="5"/>
+    </row>
+    <row r="129" spans="1:50" ht="51">
       <c r="A129" s="2"/>
-      <c r="B129" s="3"/>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
+      <c r="B129" s="3">
+        <v>79</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E129" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Stuttgart - Singen - Grenze D/CH (Gäubahn) Teilmaßnahme 7</v>
+      </c>
       <c r="F129" s="2"/>
-      <c r="G129" s="3"/>
+      <c r="G129" s="3" t="s">
+        <v>421</v>
+      </c>
       <c r="H129" s="3"/>
       <c r="I129" s="4"/>
       <c r="K129" s="1"/>
+      <c r="AA129" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB129">
+        <v>80</v>
+      </c>
       <c r="AO129" s="2"/>
       <c r="AP129" s="2"/>
       <c r="AQ129" s="4"/>
-      <c r="AR129" s="7"/>
+      <c r="AR129" s="5"/>
       <c r="AS129" s="2"/>
       <c r="AT129" s="2"/>
       <c r="AU129" s="2"/>
       <c r="AV129" s="2"/>
       <c r="AW129" s="2"/>
-      <c r="AX129" s="7"/>
-    </row>
-    <row r="130" spans="1:50" ht="16">
+      <c r="AX129" s="5"/>
+    </row>
+    <row r="130" spans="1:50" ht="34">
       <c r="A130" s="2"/>
-      <c r="B130" s="3"/>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
+      <c r="B130" s="3">
+        <v>79</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E130" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Stuttgart - Singen - Grenze D/CH (Gäubahn) Teilmaßnahme 8</v>
+      </c>
       <c r="F130" s="2"/>
-      <c r="G130" s="3"/>
+      <c r="G130" s="3" t="s">
+        <v>422</v>
+      </c>
       <c r="H130" s="3"/>
       <c r="I130" s="4"/>
       <c r="K130" s="1"/>
       <c r="R130" s="1"/>
+      <c r="Z130" t="b">
+        <v>1</v>
+      </c>
       <c r="AO130" s="2"/>
       <c r="AP130" s="2"/>
       <c r="AQ130" s="4"/>
-      <c r="AR130" s="7"/>
+      <c r="AR130" s="5"/>
       <c r="AS130" s="2"/>
       <c r="AT130" s="2"/>
       <c r="AU130" s="2"/>
       <c r="AV130" s="2"/>
       <c r="AW130" s="2"/>
-      <c r="AX130" s="7"/>
-    </row>
-    <row r="131" spans="1:50" ht="16">
+      <c r="AX130" s="5"/>
+    </row>
+    <row r="131" spans="1:50" ht="34">
       <c r="A131" s="2"/>
-      <c r="B131" s="3"/>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
+      <c r="B131" s="3">
+        <v>82</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E131" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Augsburg – Donauwörth Teilmaßnahme 1</v>
+      </c>
       <c r="F131" s="2"/>
-      <c r="G131" s="3"/>
+      <c r="G131" s="3" t="s">
+        <v>425</v>
+      </c>
       <c r="H131" s="3"/>
       <c r="I131" s="4"/>
-      <c r="AA131" s="1"/>
-      <c r="AB131" s="1"/>
+      <c r="O131" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA131" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB131" s="1">
+        <v>160</v>
+      </c>
       <c r="AO131" s="2"/>
       <c r="AP131" s="2"/>
       <c r="AQ131" s="4"/>
-      <c r="AR131" s="7"/>
+      <c r="AR131" s="5"/>
       <c r="AS131" s="2"/>
       <c r="AT131" s="2"/>
       <c r="AU131" s="2"/>
       <c r="AV131" s="2"/>
       <c r="AW131" s="2"/>
-      <c r="AX131" s="7"/>
+      <c r="AX131" s="5"/>
     </row>
     <row r="132" spans="1:50" ht="16">
       <c r="A132" s="2"/>
-      <c r="B132" s="3"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
+      <c r="B132" s="3">
+        <v>82</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="E132" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Augsburg – Donauwörth Teilmaßnahme 2</v>
+      </c>
       <c r="F132" s="2"/>
-      <c r="G132" s="3"/>
+      <c r="G132" s="2" t="s">
+        <v>428</v>
+      </c>
       <c r="H132" s="3"/>
       <c r="I132" s="4"/>
-      <c r="S132" s="1"/>
+      <c r="S132" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="T132">
+        <v>2</v>
+      </c>
       <c r="AO132" s="2"/>
       <c r="AP132" s="2"/>
       <c r="AQ132" s="4"/>
-      <c r="AR132" s="7"/>
+      <c r="AR132" s="5"/>
       <c r="AS132" s="2"/>
       <c r="AT132" s="2"/>
       <c r="AU132" s="2"/>
       <c r="AV132" s="2"/>
       <c r="AW132" s="2"/>
-      <c r="AX132" s="7"/>
-    </row>
-    <row r="133" spans="1:50" ht="16">
+      <c r="AX132" s="5"/>
+    </row>
+    <row r="133" spans="1:50" ht="34">
       <c r="A133" s="2"/>
-      <c r="B133" s="3"/>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
+      <c r="B133" s="3">
+        <v>83</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>430</v>
+      </c>
       <c r="F133" s="2"/>
-      <c r="G133" s="3"/>
+      <c r="G133" s="3" t="s">
+        <v>431</v>
+      </c>
       <c r="H133" s="3"/>
       <c r="I133" s="4"/>
       <c r="J133" s="1"/>
+      <c r="AF133" t="b">
+        <v>1</v>
+      </c>
       <c r="AO133" s="2"/>
       <c r="AP133" s="2"/>
       <c r="AQ133" s="5"/>
-      <c r="AR133" s="7"/>
+      <c r="AR133" s="5"/>
       <c r="AS133" s="2"/>
       <c r="AT133" s="2"/>
       <c r="AU133" s="2"/>
       <c r="AV133" s="2"/>
       <c r="AW133" s="2"/>
-      <c r="AX133" s="7"/>
-    </row>
-    <row r="134" spans="1:50" ht="16">
+      <c r="AX133" s="5"/>
+    </row>
+    <row r="134" spans="1:50" ht="34">
       <c r="A134" s="2"/>
-      <c r="B134" s="3"/>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
+      <c r="B134" s="3">
+        <v>83</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>432</v>
+      </c>
       <c r="F134" s="2"/>
-      <c r="G134" s="3"/>
+      <c r="G134" s="3" t="s">
+        <v>438</v>
+      </c>
       <c r="H134" s="3"/>
       <c r="I134" s="4"/>
+      <c r="N134" t="b">
+        <v>1</v>
+      </c>
       <c r="Y134" s="1"/>
       <c r="AO134" s="2"/>
       <c r="AP134" s="2"/>
       <c r="AQ134" s="5"/>
-      <c r="AR134" s="7"/>
+      <c r="AR134" s="5"/>
       <c r="AS134" s="2"/>
       <c r="AT134" s="2"/>
       <c r="AU134" s="2"/>
       <c r="AV134" s="2"/>
       <c r="AW134" s="2"/>
-      <c r="AX134" s="7"/>
-    </row>
-    <row r="135" spans="1:50" ht="16">
+      <c r="AX134" s="5"/>
+    </row>
+    <row r="135" spans="1:50" ht="51">
       <c r="A135" s="2"/>
-      <c r="B135" s="3"/>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
+      <c r="B135" s="3">
+        <v>83</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>433</v>
+      </c>
       <c r="F135" s="2"/>
-      <c r="G135" s="3"/>
+      <c r="G135" s="3" t="s">
+        <v>439</v>
+      </c>
       <c r="H135" s="3"/>
       <c r="I135" s="4"/>
+      <c r="O135" t="b">
+        <v>1</v>
+      </c>
+      <c r="P135" t="b">
+        <v>1</v>
+      </c>
       <c r="S135" s="1"/>
       <c r="AO135" s="2"/>
       <c r="AP135" s="2"/>
       <c r="AQ135" s="4"/>
-      <c r="AR135" s="7"/>
+      <c r="AR135" s="5"/>
       <c r="AS135" s="2"/>
       <c r="AT135" s="2"/>
       <c r="AU135" s="2"/>
       <c r="AV135" s="2"/>
       <c r="AW135" s="2"/>
-      <c r="AX135" s="7"/>
-    </row>
-    <row r="136" spans="1:50" ht="16">
+      <c r="AX135" s="5"/>
+    </row>
+    <row r="136" spans="1:50" ht="68">
       <c r="A136" s="2"/>
-      <c r="B136" s="3"/>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
+      <c r="B136" s="3">
+        <v>83</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>434</v>
+      </c>
       <c r="F136" s="2"/>
-      <c r="G136" s="3"/>
+      <c r="G136" s="3" t="s">
+        <v>440</v>
+      </c>
       <c r="H136" s="3"/>
       <c r="I136" s="4"/>
+      <c r="Q136" t="b">
+        <v>1</v>
+      </c>
       <c r="AF136" s="1"/>
       <c r="AO136" s="2"/>
       <c r="AP136" s="2"/>
       <c r="AQ136" s="5"/>
-      <c r="AR136" s="7"/>
+      <c r="AR136" s="5"/>
       <c r="AS136" s="2"/>
       <c r="AT136" s="2"/>
       <c r="AU136" s="2"/>
       <c r="AV136" s="2"/>
       <c r="AW136" s="2"/>
-      <c r="AX136" s="7"/>
-    </row>
-    <row r="137" spans="1:50" ht="16">
+      <c r="AX136" s="5"/>
+    </row>
+    <row r="137" spans="1:50" ht="34">
       <c r="A137" s="2"/>
-      <c r="B137" s="3"/>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
-      <c r="E137" s="2"/>
+      <c r="B137" s="3">
+        <v>84</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E137" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>München - Rosenheim - Kiefersfelden - Grenze D/A Teilmaßnahme 1</v>
+      </c>
       <c r="F137" s="2"/>
-      <c r="G137" s="3"/>
+      <c r="G137" s="3" t="s">
+        <v>443</v>
+      </c>
       <c r="H137" s="3"/>
       <c r="I137" s="4"/>
       <c r="Y137" s="1"/>
       <c r="AO137" s="2"/>
       <c r="AP137" s="2"/>
       <c r="AQ137" s="5"/>
-      <c r="AR137" s="7"/>
+      <c r="AR137" s="5"/>
       <c r="AS137" s="2"/>
       <c r="AT137" s="2"/>
       <c r="AU137" s="2"/>
       <c r="AV137" s="2"/>
       <c r="AW137" s="2"/>
-      <c r="AX137" s="7"/>
-    </row>
-    <row r="138" spans="1:50" ht="16">
+      <c r="AX137" s="5"/>
+    </row>
+    <row r="138" spans="1:50" ht="51">
       <c r="A138" s="2"/>
-      <c r="B138" s="3"/>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
+      <c r="B138" s="3">
+        <v>84</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E138" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>München - Rosenheim - Kiefersfelden - Grenze D/A Teilmaßnahme 2</v>
+      </c>
       <c r="F138" s="2"/>
-      <c r="G138" s="3"/>
+      <c r="G138" s="3" t="s">
+        <v>444</v>
+      </c>
       <c r="H138" s="3"/>
       <c r="I138" s="4"/>
+      <c r="J138" t="b">
+        <v>1</v>
+      </c>
       <c r="R138" s="1"/>
       <c r="AO138" s="2"/>
       <c r="AP138" s="2"/>
       <c r="AQ138" s="4"/>
-      <c r="AR138" s="7"/>
+      <c r="AR138" s="5"/>
       <c r="AS138" s="2"/>
       <c r="AT138" s="2"/>
       <c r="AU138" s="2"/>
       <c r="AV138" s="2"/>
       <c r="AW138" s="2"/>
-      <c r="AX138" s="7"/>
-    </row>
-    <row r="139" spans="1:50" ht="16">
+      <c r="AX138" s="5"/>
+    </row>
+    <row r="139" spans="1:50" ht="51">
       <c r="A139" s="2"/>
-      <c r="B139" s="3"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
+      <c r="B139" s="3">
+        <v>84</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="E139" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>München - Rosenheim - Kiefersfelden - Grenze D/A Teilmaßnahme 3</v>
+      </c>
       <c r="F139" s="2"/>
-      <c r="G139" s="3"/>
+      <c r="G139" s="3" t="s">
+        <v>449</v>
+      </c>
       <c r="H139" s="3"/>
       <c r="I139" s="4"/>
+      <c r="J139" t="b">
+        <v>1</v>
+      </c>
       <c r="K139" s="1"/>
       <c r="AO139" s="2"/>
       <c r="AP139" s="2"/>
       <c r="AQ139" s="5"/>
-      <c r="AR139" s="7"/>
+      <c r="AR139" s="5"/>
       <c r="AS139" s="2"/>
       <c r="AT139" s="2"/>
       <c r="AU139" s="2"/>
       <c r="AV139" s="2"/>
       <c r="AW139" s="2"/>
-      <c r="AX139" s="7"/>
-    </row>
-    <row r="140" spans="1:50" ht="16">
+      <c r="AX139" s="5"/>
+    </row>
+    <row r="140" spans="1:50" ht="51">
       <c r="A140" s="2"/>
-      <c r="B140" s="3"/>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
+      <c r="B140" s="3">
+        <v>84</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E140" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>München - Rosenheim - Kiefersfelden - Grenze D/A Teilmaßnahme 4</v>
+      </c>
       <c r="F140" s="2"/>
-      <c r="G140" s="3"/>
+      <c r="G140" s="3" t="s">
+        <v>452</v>
+      </c>
       <c r="H140" s="3"/>
       <c r="I140" s="4"/>
+      <c r="J140" t="b">
+        <v>1</v>
+      </c>
       <c r="Y140" s="1"/>
       <c r="AO140" s="2"/>
       <c r="AP140" s="2"/>
       <c r="AQ140" s="5"/>
-      <c r="AR140" s="7"/>
+      <c r="AR140" s="5"/>
       <c r="AS140" s="2"/>
       <c r="AT140" s="2"/>
       <c r="AU140" s="2"/>
       <c r="AV140" s="2"/>
       <c r="AW140" s="2"/>
-      <c r="AX140" s="7"/>
+      <c r="AX140" s="5"/>
     </row>
     <row r="141" spans="1:50" ht="16">
       <c r="A141" s="2"/>
-      <c r="B141" s="3"/>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2"/>
+      <c r="B141" s="3">
+        <v>85</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="E141" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>München - Mühldorf - Freilassing Teilmaßnahme 1</v>
+      </c>
       <c r="F141" s="2"/>
-      <c r="G141" s="3"/>
+      <c r="G141" s="2" t="s">
+        <v>453</v>
+      </c>
       <c r="H141" s="3"/>
       <c r="I141" s="4"/>
       <c r="K141" s="1"/>
+      <c r="N141" t="b">
+        <v>1</v>
+      </c>
       <c r="AO141" s="2"/>
       <c r="AQ141" s="4"/>
-      <c r="AR141" s="7"/>
+      <c r="AR141" s="5"/>
       <c r="AS141" s="2"/>
       <c r="AT141" s="2"/>
       <c r="AU141" s="2"/>
       <c r="AV141" s="2"/>
       <c r="AW141" s="2"/>
-      <c r="AX141" s="7"/>
-    </row>
-    <row r="142" spans="1:50" ht="16">
+      <c r="AX141" s="5"/>
+    </row>
+    <row r="142" spans="1:50" ht="51">
       <c r="A142" s="2"/>
-      <c r="B142" s="3"/>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
+      <c r="B142" s="3">
+        <v>85</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="E142" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>München - Mühldorf - Freilassing Teilmaßnahme 2</v>
+      </c>
       <c r="F142" s="2"/>
-      <c r="G142" s="3"/>
+      <c r="G142" s="3" t="s">
+        <v>458</v>
+      </c>
       <c r="H142" s="3"/>
       <c r="I142" s="4"/>
       <c r="J142" s="1"/>
+      <c r="L142" t="b">
+        <v>1</v>
+      </c>
       <c r="Q142" s="1"/>
       <c r="Y142" s="1"/>
       <c r="AO142" s="2"/>
       <c r="AP142" s="2"/>
       <c r="AQ142" s="5"/>
-      <c r="AR142" s="7"/>
+      <c r="AR142" s="5"/>
       <c r="AS142" s="2"/>
       <c r="AT142" s="2"/>
       <c r="AU142" s="2"/>
       <c r="AV142" s="2"/>
       <c r="AW142" s="2"/>
-      <c r="AX142" s="7"/>
-    </row>
-    <row r="143" spans="1:50" ht="16">
+      <c r="AX142" s="5"/>
+    </row>
+    <row r="143" spans="1:50" ht="34">
       <c r="A143" s="2"/>
-      <c r="B143" s="3"/>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
+      <c r="B143" s="3">
+        <v>85</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E143" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>München - Mühldorf - Freilassing Teilmaßnahme 3</v>
+      </c>
       <c r="F143" s="2"/>
-      <c r="G143" s="3"/>
+      <c r="G143" s="3" t="s">
+        <v>459</v>
+      </c>
       <c r="H143" s="3"/>
       <c r="I143" s="4"/>
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
-      <c r="AB143" s="1"/>
+      <c r="N143" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA143" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB143" s="1">
+        <v>160</v>
+      </c>
       <c r="AO143" s="2"/>
       <c r="AP143" s="2"/>
       <c r="AQ143" s="5"/>
-      <c r="AR143" s="7"/>
+      <c r="AR143" s="5"/>
       <c r="AS143" s="2"/>
       <c r="AT143" s="2"/>
       <c r="AU143" s="2"/>
       <c r="AV143" s="2"/>
       <c r="AW143" s="2"/>
-      <c r="AX143" s="7"/>
-    </row>
-    <row r="144" spans="1:50" ht="16">
+      <c r="AX143" s="5"/>
+    </row>
+    <row r="144" spans="1:50" ht="68">
       <c r="A144" s="2"/>
-      <c r="B144" s="3"/>
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
-      <c r="E144" s="2"/>
+      <c r="B144" s="3">
+        <v>85</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E144" s="2" t="str">
+        <f t="shared" ref="E144:E163" si="6">RIGHT(C144,LEN(C144)-SEARCH(" ",C144,1))</f>
+        <v>München - Mühldorf - Freilassing Teilmaßnahme 4</v>
+      </c>
       <c r="F144" s="2"/>
-      <c r="G144" s="3"/>
+      <c r="G144" s="3" t="s">
+        <v>460</v>
+      </c>
       <c r="H144" s="3"/>
       <c r="I144" s="4"/>
+      <c r="L144" t="b">
+        <v>1</v>
+      </c>
       <c r="U144" s="1"/>
       <c r="AO144" s="2"/>
       <c r="AP144" s="2"/>
       <c r="AQ144" s="5"/>
-      <c r="AR144" s="7"/>
+      <c r="AR144" s="5"/>
       <c r="AS144" s="2"/>
       <c r="AT144" s="2"/>
       <c r="AU144" s="2"/>
       <c r="AV144" s="2"/>
       <c r="AW144" s="2"/>
-      <c r="AX144" s="7"/>
-    </row>
-    <row r="145" spans="1:50" ht="16">
+      <c r="AX144" s="5"/>
+    </row>
+    <row r="145" spans="1:50" ht="17">
       <c r="A145" s="2"/>
-      <c r="B145" s="3"/>
-      <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
+      <c r="B145" s="3">
+        <v>85</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="E145" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>München - Mühldorf - Freilassing Teilmaßnahme 5</v>
+      </c>
       <c r="F145" s="2"/>
-      <c r="G145" s="3"/>
+      <c r="G145" s="3" t="s">
+        <v>463</v>
+      </c>
       <c r="H145" s="3"/>
       <c r="I145" s="4"/>
+      <c r="Q145" t="b">
+        <v>1</v>
+      </c>
       <c r="U145" s="1"/>
       <c r="AO145" s="2"/>
       <c r="AP145" s="2"/>
       <c r="AQ145" s="5"/>
-      <c r="AR145" s="7"/>
+      <c r="AR145" s="5"/>
       <c r="AS145" s="2"/>
       <c r="AT145" s="2"/>
       <c r="AU145" s="2"/>
       <c r="AV145" s="2"/>
       <c r="AW145" s="2"/>
-      <c r="AX145" s="7"/>
-    </row>
-    <row r="146" spans="1:50" ht="16">
+      <c r="AX145" s="5"/>
+    </row>
+    <row r="146" spans="1:50" ht="34">
       <c r="A146" s="2"/>
-      <c r="B146" s="3"/>
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
-      <c r="E146" s="2"/>
+      <c r="B146" s="3">
+        <v>85</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="E146" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>München - Mühldorf - Freilassing Teilmaßnahme 6</v>
+      </c>
       <c r="F146" s="2"/>
-      <c r="G146" s="3"/>
+      <c r="G146" s="3" t="s">
+        <v>464</v>
+      </c>
       <c r="H146" s="3"/>
       <c r="I146" s="4"/>
+      <c r="N146" t="b">
+        <v>1</v>
+      </c>
       <c r="AF146" s="1"/>
       <c r="AO146" s="2"/>
       <c r="AP146" s="2"/>
       <c r="AQ146" s="4"/>
-      <c r="AR146" s="7"/>
+      <c r="AR146" s="5"/>
       <c r="AS146" s="2"/>
       <c r="AT146" s="2"/>
       <c r="AU146" s="2"/>
       <c r="AV146" s="2"/>
       <c r="AW146" s="2"/>
-      <c r="AX146" s="7"/>
-    </row>
-    <row r="147" spans="1:50" ht="16">
+      <c r="AX146" s="5"/>
+    </row>
+    <row r="147" spans="1:50" ht="34">
       <c r="A147" s="2"/>
-      <c r="B147" s="3"/>
-      <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
-      <c r="E147" s="2"/>
+      <c r="B147" s="3">
+        <v>85</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E147" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>München - Mühldorf - Freilassing Teilmaßnahme 7</v>
+      </c>
       <c r="F147" s="2"/>
-      <c r="G147" s="3"/>
+      <c r="G147" s="3" t="s">
+        <v>466</v>
+      </c>
       <c r="H147" s="3"/>
       <c r="I147" s="4"/>
+      <c r="J147" t="b">
+        <v>1</v>
+      </c>
       <c r="AA147" s="1"/>
       <c r="AB147" s="1"/>
       <c r="AO147" s="2"/>
       <c r="AP147" s="2"/>
       <c r="AQ147" s="4"/>
-      <c r="AR147" s="7"/>
+      <c r="AR147" s="5"/>
       <c r="AS147" s="2"/>
       <c r="AT147" s="2"/>
       <c r="AU147" s="2"/>
       <c r="AV147" s="2"/>
       <c r="AW147" s="2"/>
-      <c r="AX147" s="7"/>
-    </row>
-    <row r="148" spans="1:50" ht="16">
+      <c r="AX147" s="5"/>
+    </row>
+    <row r="148" spans="1:50" ht="51">
       <c r="A148" s="2"/>
-      <c r="B148" s="3"/>
-      <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
-      <c r="E148" s="2"/>
+      <c r="B148" s="3">
+        <v>88</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="E148" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Nürnberg/Regensburg - Furth im Wald - Grenze D/CZ Teilmaßnahme 1</v>
+      </c>
       <c r="F148" s="2"/>
-      <c r="G148" s="3"/>
+      <c r="G148" s="3" t="s">
+        <v>476</v>
+      </c>
       <c r="H148" s="3"/>
       <c r="I148" s="4"/>
+      <c r="L148" t="b">
+        <v>1</v>
+      </c>
       <c r="AF148" s="1"/>
       <c r="AO148" s="2"/>
       <c r="AP148" s="2"/>
       <c r="AQ148" s="5"/>
-      <c r="AR148" s="7"/>
+      <c r="AR148" s="5"/>
       <c r="AS148" s="2"/>
       <c r="AT148" s="2"/>
       <c r="AU148" s="2"/>
@@ -6837,21 +8494,35 @@
       <c r="AW148" s="2"/>
       <c r="AX148" s="2"/>
     </row>
-    <row r="149" spans="1:50" ht="16">
+    <row r="149" spans="1:50" ht="34">
       <c r="A149" s="2"/>
-      <c r="B149" s="3"/>
-      <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
-      <c r="E149" s="2"/>
+      <c r="B149" s="3">
+        <v>88</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E149" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Nürnberg/Regensburg - Furth im Wald - Grenze D/CZ Teilmaßnahme 2</v>
+      </c>
       <c r="F149" s="2"/>
-      <c r="G149" s="3"/>
+      <c r="G149" s="3" t="s">
+        <v>487</v>
+      </c>
       <c r="H149" s="3"/>
       <c r="I149" s="4"/>
       <c r="J149" s="1"/>
+      <c r="L149" t="b">
+        <v>1</v>
+      </c>
       <c r="AO149" s="2"/>
       <c r="AP149" s="2"/>
       <c r="AQ149" s="5"/>
-      <c r="AR149" s="7"/>
+      <c r="AR149" s="5"/>
       <c r="AS149" s="2"/>
       <c r="AT149" s="2"/>
       <c r="AU149" s="2"/>
@@ -6859,21 +8530,41 @@
       <c r="AW149" s="2"/>
       <c r="AX149" s="2"/>
     </row>
-    <row r="150" spans="1:50" ht="16">
-      <c r="A150" s="8"/>
-      <c r="B150" s="3"/>
-      <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
-      <c r="E150" s="2"/>
+    <row r="150" spans="1:50" ht="68">
+      <c r="A150" s="7"/>
+      <c r="B150" s="3">
+        <v>88</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="E150" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Nürnberg/Regensburg - Furth im Wald - Grenze D/CZ Teilmaßnahme 3</v>
+      </c>
       <c r="F150" s="2"/>
-      <c r="G150" s="3"/>
+      <c r="G150" s="3" t="s">
+        <v>488</v>
+      </c>
       <c r="H150" s="3"/>
       <c r="I150" s="4"/>
       <c r="J150" s="1"/>
-      <c r="AO150" s="8"/>
+      <c r="L150" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA150" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB150">
+        <v>160</v>
+      </c>
+      <c r="AO150" s="7"/>
       <c r="AP150" s="2"/>
       <c r="AQ150" s="4"/>
-      <c r="AR150" s="7"/>
+      <c r="AR150" s="5"/>
       <c r="AS150" s="2"/>
       <c r="AT150" s="2"/>
       <c r="AU150" s="2"/>
@@ -6881,21 +8572,41 @@
       <c r="AW150" s="2"/>
       <c r="AX150" s="2"/>
     </row>
-    <row r="151" spans="1:50" ht="16">
+    <row r="151" spans="1:50" ht="85">
       <c r="A151" s="2"/>
-      <c r="B151" s="3"/>
-      <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
-      <c r="E151" s="2"/>
+      <c r="B151" s="3">
+        <v>88</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="E151" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Nürnberg/Regensburg - Furth im Wald - Grenze D/CZ Teilmaßnahme 4</v>
+      </c>
       <c r="F151" s="2"/>
-      <c r="G151" s="3"/>
+      <c r="G151" s="3" t="s">
+        <v>489</v>
+      </c>
       <c r="H151" s="3"/>
       <c r="I151" s="4"/>
+      <c r="L151" t="b">
+        <v>1</v>
+      </c>
       <c r="R151" s="1"/>
+      <c r="AA151" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB151">
+        <v>110</v>
+      </c>
       <c r="AO151" s="2"/>
       <c r="AP151" s="2"/>
       <c r="AQ151" s="4"/>
-      <c r="AR151" s="7"/>
+      <c r="AR151" s="5"/>
       <c r="AS151" s="2"/>
       <c r="AT151" s="2"/>
       <c r="AU151" s="2"/>
@@ -6903,21 +8614,35 @@
       <c r="AW151" s="2"/>
       <c r="AX151" s="2"/>
     </row>
-    <row r="152" spans="1:50" ht="16">
+    <row r="152" spans="1:50" ht="34">
       <c r="A152" s="2"/>
-      <c r="B152" s="3"/>
-      <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
-      <c r="E152" s="2"/>
+      <c r="B152" s="3">
+        <v>88</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="E152" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Nürnberg/Regensburg - Furth im Wald - Grenze D/CZ Teilmaßnahme 5</v>
+      </c>
       <c r="F152" s="2"/>
-      <c r="G152" s="3"/>
+      <c r="G152" s="3" t="s">
+        <v>490</v>
+      </c>
       <c r="H152" s="3"/>
       <c r="I152" s="4"/>
       <c r="K152" s="1"/>
+      <c r="L152" t="b">
+        <v>1</v>
+      </c>
       <c r="AO152" s="2"/>
       <c r="AP152" s="2"/>
       <c r="AQ152" s="4"/>
-      <c r="AR152" s="7"/>
+      <c r="AR152" s="5"/>
       <c r="AS152" s="2"/>
       <c r="AT152" s="2"/>
       <c r="AU152" s="2"/>
@@ -6925,21 +8650,38 @@
       <c r="AW152" s="2"/>
       <c r="AX152" s="2"/>
     </row>
-    <row r="153" spans="1:50" ht="16">
+    <row r="153" spans="1:50" ht="34">
       <c r="A153" s="2"/>
-      <c r="B153" s="3"/>
-      <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
-      <c r="E153" s="2"/>
+      <c r="B153" s="3">
+        <v>88</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="E153" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Nürnberg/Regensburg - Furth im Wald - Grenze D/CZ Teilmaßnahme 6</v>
+      </c>
       <c r="F153" s="2"/>
-      <c r="G153" s="3"/>
+      <c r="G153" s="3" t="s">
+        <v>491</v>
+      </c>
       <c r="H153" s="3"/>
       <c r="I153" s="4"/>
+      <c r="S153" t="b">
+        <v>1</v>
+      </c>
+      <c r="T153">
+        <v>2</v>
+      </c>
       <c r="AF153" s="1"/>
       <c r="AO153" s="2"/>
       <c r="AP153" s="2"/>
       <c r="AQ153" s="5"/>
-      <c r="AR153" s="7"/>
+      <c r="AR153" s="5"/>
       <c r="AS153" s="2"/>
       <c r="AT153" s="2"/>
       <c r="AU153" s="2"/>
@@ -6947,23 +8689,37 @@
       <c r="AW153" s="2"/>
       <c r="AX153" s="2"/>
     </row>
-    <row r="154" spans="1:50" ht="16">
+    <row r="154" spans="1:50" ht="34">
       <c r="A154" s="2"/>
-      <c r="B154" s="3"/>
-      <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
-      <c r="E154" s="2"/>
+      <c r="B154" s="3">
+        <v>89</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="E154" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Hof - Marktredwitz - Regensburg - Obertraubling (Ostkorridor Süd) Teilmaßnahme 1</v>
+      </c>
       <c r="F154" s="2"/>
-      <c r="G154" s="3"/>
+      <c r="G154" s="3" t="s">
+        <v>494</v>
+      </c>
       <c r="H154" s="3"/>
       <c r="I154" s="4"/>
       <c r="K154" s="1"/>
+      <c r="L154" t="b">
+        <v>1</v>
+      </c>
       <c r="N154" s="1"/>
       <c r="AF154" s="1"/>
       <c r="AO154" s="2"/>
       <c r="AP154" s="2"/>
       <c r="AQ154" s="5"/>
-      <c r="AR154" s="7"/>
+      <c r="AR154" s="5"/>
       <c r="AS154" s="2"/>
       <c r="AT154" s="2"/>
       <c r="AU154" s="2"/>
@@ -6971,21 +8727,35 @@
       <c r="AW154" s="2"/>
       <c r="AX154" s="2"/>
     </row>
-    <row r="155" spans="1:50" ht="16">
+    <row r="155" spans="1:50" ht="34">
       <c r="A155" s="2"/>
-      <c r="B155" s="3"/>
-      <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
-      <c r="E155" s="2"/>
+      <c r="B155" s="3">
+        <v>89</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="E155" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Hof - Marktredwitz - Regensburg - Obertraubling (Ostkorridor Süd) Teilmaßnahme 2</v>
+      </c>
       <c r="F155" s="2"/>
-      <c r="G155" s="3"/>
+      <c r="G155" s="3" t="s">
+        <v>501</v>
+      </c>
       <c r="H155" s="3"/>
       <c r="I155" s="4"/>
+      <c r="O155" t="b">
+        <v>1</v>
+      </c>
       <c r="R155" s="1"/>
       <c r="AO155" s="2"/>
       <c r="AP155" s="2"/>
       <c r="AQ155" s="4"/>
-      <c r="AR155" s="7"/>
+      <c r="AR155" s="5"/>
       <c r="AS155" s="2"/>
       <c r="AT155" s="2"/>
       <c r="AU155" s="2"/>
@@ -6993,21 +8763,35 @@
       <c r="AW155" s="2"/>
       <c r="AX155" s="2"/>
     </row>
-    <row r="156" spans="1:50" ht="16">
+    <row r="156" spans="1:50" ht="51">
       <c r="A156" s="2"/>
-      <c r="B156" s="3"/>
-      <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
-      <c r="E156" s="2"/>
+      <c r="B156" s="3">
+        <v>89</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="E156" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Hof - Marktredwitz - Regensburg - Obertraubling (Ostkorridor Süd) Teilmaßnahme 3</v>
+      </c>
       <c r="F156" s="2"/>
-      <c r="G156" s="3"/>
+      <c r="G156" s="3" t="s">
+        <v>502</v>
+      </c>
       <c r="H156" s="3"/>
       <c r="I156" s="4"/>
       <c r="K156" s="1"/>
+      <c r="N156" t="b">
+        <v>1</v>
+      </c>
       <c r="AO156" s="2"/>
       <c r="AP156" s="2"/>
       <c r="AQ156" s="5"/>
-      <c r="AR156" s="7"/>
+      <c r="AR156" s="5"/>
       <c r="AS156" s="2"/>
       <c r="AT156" s="2"/>
       <c r="AU156" s="2"/>
@@ -7015,21 +8799,35 @@
       <c r="AW156" s="2"/>
       <c r="AX156" s="2"/>
     </row>
-    <row r="157" spans="1:50" ht="16">
+    <row r="157" spans="1:50" ht="51">
       <c r="A157" s="2"/>
-      <c r="B157" s="3"/>
-      <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
-      <c r="E157" s="2"/>
+      <c r="B157" s="3">
+        <v>89</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="E157" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Hof - Marktredwitz - Regensburg - Obertraubling (Ostkorridor Süd) Teilmaßnahme 4</v>
+      </c>
       <c r="F157" s="2"/>
-      <c r="G157" s="3"/>
+      <c r="G157" s="3" t="s">
+        <v>503</v>
+      </c>
       <c r="H157" s="3"/>
       <c r="I157" s="4"/>
       <c r="U157" s="1"/>
+      <c r="Z157" t="b">
+        <v>1</v>
+      </c>
       <c r="AO157" s="2"/>
       <c r="AP157" s="2"/>
       <c r="AQ157" s="5"/>
-      <c r="AR157" s="7"/>
+      <c r="AR157" s="5"/>
       <c r="AS157" s="2"/>
       <c r="AT157" s="2"/>
       <c r="AU157" s="2"/>
@@ -7037,21 +8835,38 @@
       <c r="AW157" s="2"/>
       <c r="AX157" s="2"/>
     </row>
-    <row r="158" spans="1:50" ht="16">
+    <row r="158" spans="1:50" ht="34">
       <c r="A158" s="2"/>
-      <c r="B158" s="3"/>
-      <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
-      <c r="E158" s="2"/>
+      <c r="B158" s="3">
+        <v>92</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="E158" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Nürnberg - Erfurt (VDE 8.1) Teilmaßnahnme 1</v>
+      </c>
       <c r="F158" s="2"/>
-      <c r="G158" s="3"/>
+      <c r="G158" s="3" t="s">
+        <v>506</v>
+      </c>
       <c r="H158" s="3"/>
       <c r="I158" s="4"/>
       <c r="Y158" s="1"/>
+      <c r="AA158" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB158">
+        <v>230</v>
+      </c>
       <c r="AO158" s="2"/>
       <c r="AP158" s="2"/>
       <c r="AQ158" s="5"/>
-      <c r="AR158" s="7"/>
+      <c r="AR158" s="5"/>
       <c r="AS158" s="2"/>
       <c r="AT158" s="2"/>
       <c r="AU158" s="2"/>
@@ -7059,21 +8874,38 @@
       <c r="AW158" s="2"/>
       <c r="AX158" s="2"/>
     </row>
-    <row r="159" spans="1:50" ht="16">
+    <row r="159" spans="1:50" ht="34">
       <c r="A159" s="2"/>
-      <c r="B159" s="3"/>
-      <c r="C159" s="2"/>
-      <c r="D159" s="2"/>
-      <c r="E159" s="2"/>
+      <c r="B159" s="3">
+        <v>92</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E159" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Nürnberg - Erfurt (VDE 8.1) Teilmaßnahnme 2</v>
+      </c>
       <c r="F159" s="2"/>
-      <c r="G159" s="3"/>
+      <c r="G159" s="3" t="s">
+        <v>515</v>
+      </c>
       <c r="H159" s="3"/>
       <c r="I159" s="4"/>
       <c r="L159" s="1"/>
+      <c r="U159" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="V159">
+        <v>1</v>
+      </c>
       <c r="AO159" s="2"/>
       <c r="AP159" s="2"/>
       <c r="AQ159" s="4"/>
-      <c r="AR159" s="7"/>
+      <c r="AR159" s="5"/>
       <c r="AS159" s="2"/>
       <c r="AT159" s="2"/>
       <c r="AU159" s="2"/>
@@ -7081,22 +8913,36 @@
       <c r="AW159" s="2"/>
       <c r="AX159" s="2"/>
     </row>
-    <row r="160" spans="1:50" ht="16">
+    <row r="160" spans="1:50" ht="51">
       <c r="A160" s="2"/>
-      <c r="B160" s="3"/>
-      <c r="C160" s="2"/>
-      <c r="D160" s="2"/>
-      <c r="E160" s="2"/>
+      <c r="B160" s="3">
+        <v>92</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E160" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Nürnberg - Erfurt (VDE 8.1) Teilmaßnahnme 3</v>
+      </c>
       <c r="F160" s="2"/>
-      <c r="G160" s="3"/>
+      <c r="G160" s="3" t="s">
+        <v>516</v>
+      </c>
       <c r="H160" s="3"/>
       <c r="I160" s="4"/>
+      <c r="J160" t="b">
+        <v>1</v>
+      </c>
       <c r="L160" s="1"/>
       <c r="Q160" s="1"/>
       <c r="AO160" s="2"/>
       <c r="AP160" s="2"/>
       <c r="AQ160" s="4"/>
-      <c r="AR160" s="7"/>
+      <c r="AR160" s="5"/>
       <c r="AS160" s="2"/>
       <c r="AT160" s="2"/>
       <c r="AU160" s="2"/>
@@ -7104,21 +8950,35 @@
       <c r="AW160" s="2"/>
       <c r="AX160" s="2"/>
     </row>
-    <row r="161" spans="1:50" ht="16">
+    <row r="161" spans="1:50" ht="51">
       <c r="A161" s="2"/>
-      <c r="B161" s="3"/>
-      <c r="C161" s="2"/>
-      <c r="D161" s="2"/>
-      <c r="E161" s="2"/>
+      <c r="B161" s="3">
+        <v>92</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="E161" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Nürnberg - Erfurt (VDE 8.1) Teilmaßnahnme 4</v>
+      </c>
       <c r="F161" s="2"/>
-      <c r="G161" s="3"/>
+      <c r="G161" s="3" t="s">
+        <v>517</v>
+      </c>
       <c r="H161" s="3"/>
       <c r="I161" s="4"/>
+      <c r="J161" t="b">
+        <v>1</v>
+      </c>
       <c r="S161" s="1"/>
       <c r="AO161" s="2"/>
       <c r="AP161" s="2"/>
       <c r="AQ161" s="4"/>
-      <c r="AR161" s="7"/>
+      <c r="AR161" s="5"/>
       <c r="AS161" s="2"/>
       <c r="AT161" s="2"/>
       <c r="AU161" s="2"/>
@@ -7126,21 +8986,35 @@
       <c r="AW161" s="2"/>
       <c r="AX161" s="2"/>
     </row>
-    <row r="162" spans="1:50" ht="16">
+    <row r="162" spans="1:50" ht="34">
       <c r="A162" s="2"/>
-      <c r="B162" s="3"/>
-      <c r="C162" s="2"/>
-      <c r="D162" s="2"/>
-      <c r="E162" s="2"/>
+      <c r="B162" s="3">
+        <v>92</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="E162" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Nürnberg - Erfurt (VDE 8.1) Teilmaßnahnme 5</v>
+      </c>
       <c r="F162" s="2"/>
-      <c r="G162" s="3"/>
+      <c r="G162" s="3" t="s">
+        <v>518</v>
+      </c>
       <c r="H162" s="3"/>
       <c r="I162" s="4"/>
+      <c r="AA162" t="b">
+        <v>1</v>
+      </c>
       <c r="AF162" s="1"/>
       <c r="AO162" s="2"/>
       <c r="AP162" s="2"/>
       <c r="AQ162" s="5"/>
-      <c r="AR162" s="7"/>
+      <c r="AR162" s="5"/>
       <c r="AS162" s="2"/>
       <c r="AT162" s="2"/>
       <c r="AU162" s="2"/>
@@ -7148,21 +9022,35 @@
       <c r="AW162" s="2"/>
       <c r="AX162" s="2"/>
     </row>
-    <row r="163" spans="1:50" ht="16">
+    <row r="163" spans="1:50" ht="51">
       <c r="A163" s="2"/>
-      <c r="B163" s="3"/>
-      <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
-      <c r="E163" s="2"/>
+      <c r="B163" s="3">
+        <v>93</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="E163" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Burgsinn - Gemünden - Würzburg - Nürnberg Teilmaßnahme 1</v>
+      </c>
       <c r="F163" s="2"/>
-      <c r="G163" s="3"/>
+      <c r="G163" s="3" t="s">
+        <v>519</v>
+      </c>
       <c r="H163" s="3"/>
       <c r="I163" s="4"/>
       <c r="V163" s="1"/>
+      <c r="X163" t="b">
+        <v>1</v>
+      </c>
       <c r="AO163" s="2"/>
       <c r="AP163" s="2"/>
       <c r="AQ163" s="4"/>
-      <c r="AR163" s="7"/>
+      <c r="AR163" s="5"/>
       <c r="AS163" s="2"/>
       <c r="AT163" s="2"/>
       <c r="AU163" s="2"/>
@@ -7172,19 +9060,33 @@
     </row>
     <row r="164" spans="1:50" ht="16">
       <c r="A164" s="2"/>
-      <c r="B164" s="3"/>
-      <c r="C164" s="2"/>
-      <c r="D164" s="2"/>
-      <c r="E164" s="2"/>
+      <c r="B164" s="3">
+        <v>93</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="E164" s="2" t="str">
+        <f>RIGHT(C164,LEN(C164)-SEARCH(" ",C164,1))</f>
+        <v>Burgsinn - Gemünden - Würzburg - Nürnberg Teilmaßnahme 2</v>
+      </c>
       <c r="F164" s="2"/>
-      <c r="G164" s="3"/>
+      <c r="G164" t="s">
+        <v>522</v>
+      </c>
       <c r="H164" s="3"/>
       <c r="I164" s="4"/>
+      <c r="O164" t="b">
+        <v>1</v>
+      </c>
       <c r="R164" s="1"/>
       <c r="AO164" s="2"/>
       <c r="AP164" s="2"/>
       <c r="AQ164" s="4"/>
-      <c r="AR164" s="7"/>
+      <c r="AR164" s="5"/>
       <c r="AS164" s="2"/>
       <c r="AT164" s="2"/>
       <c r="AU164" s="2"/>
@@ -7192,21 +9094,34 @@
       <c r="AW164" s="2"/>
       <c r="AX164" s="2"/>
     </row>
-    <row r="165" spans="1:50" ht="16">
+    <row r="165" spans="1:50" ht="51">
       <c r="A165" s="2"/>
-      <c r="B165" s="3"/>
-      <c r="C165" s="2"/>
-      <c r="D165" s="2"/>
-      <c r="E165" s="2"/>
+      <c r="B165" s="3">
+        <v>94</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>525</v>
+      </c>
       <c r="F165" s="2"/>
-      <c r="G165" s="3"/>
+      <c r="G165" s="3" t="s">
+        <v>526</v>
+      </c>
       <c r="H165" s="3"/>
       <c r="I165" s="4"/>
+      <c r="J165" t="b">
+        <v>1</v>
+      </c>
       <c r="AF165" s="1"/>
       <c r="AO165" s="2"/>
       <c r="AP165" s="2"/>
       <c r="AQ165" s="4"/>
-      <c r="AR165" s="7"/>
+      <c r="AR165" s="5"/>
       <c r="AS165" s="2"/>
       <c r="AT165" s="2"/>
       <c r="AU165" s="2"/>
@@ -7214,20 +9129,33 @@
       <c r="AW165" s="2"/>
       <c r="AX165" s="2"/>
     </row>
-    <row r="166" spans="1:50" ht="16">
+    <row r="166" spans="1:50" ht="102">
       <c r="A166" s="2"/>
-      <c r="B166" s="3"/>
-      <c r="C166" s="2"/>
-      <c r="D166" s="2"/>
-      <c r="E166" s="2"/>
+      <c r="B166" s="3">
+        <v>94</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>527</v>
+      </c>
       <c r="F166" s="2"/>
-      <c r="G166" s="3"/>
+      <c r="G166" s="3" t="s">
+        <v>533</v>
+      </c>
       <c r="H166" s="3"/>
       <c r="I166" s="4"/>
+      <c r="Y166" t="b">
+        <v>1</v>
+      </c>
       <c r="AO166" s="2"/>
       <c r="AP166" s="2"/>
       <c r="AQ166" s="4"/>
-      <c r="AR166" s="7"/>
+      <c r="AR166" s="5"/>
       <c r="AS166" s="2"/>
       <c r="AT166" s="2"/>
       <c r="AU166" s="2"/>
@@ -7235,23 +9163,36 @@
       <c r="AW166" s="2"/>
       <c r="AX166" s="2"/>
     </row>
-    <row r="167" spans="1:50" ht="16">
+    <row r="167" spans="1:50" ht="51">
       <c r="A167" s="2"/>
-      <c r="B167" s="3"/>
-      <c r="C167" s="2"/>
-      <c r="D167" s="2"/>
-      <c r="E167" s="2"/>
+      <c r="B167" s="3">
+        <v>94</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>528</v>
+      </c>
       <c r="F167" s="2"/>
-      <c r="G167" s="3"/>
+      <c r="G167" s="3" t="s">
+        <v>534</v>
+      </c>
       <c r="H167" s="3"/>
       <c r="I167" s="4"/>
       <c r="J167" s="1"/>
       <c r="S167" s="1"/>
       <c r="T167" s="1"/>
+      <c r="X167" t="b">
+        <v>1</v>
+      </c>
       <c r="AO167" s="2"/>
       <c r="AP167" s="2"/>
       <c r="AQ167" s="4"/>
-      <c r="AR167" s="7"/>
+      <c r="AR167" s="5"/>
       <c r="AS167" s="2"/>
       <c r="AT167" s="2"/>
       <c r="AU167" s="2"/>
@@ -7259,21 +9200,34 @@
       <c r="AW167" s="2"/>
       <c r="AX167" s="2"/>
     </row>
-    <row r="168" spans="1:50" ht="16">
+    <row r="168" spans="1:50" ht="34">
       <c r="A168" s="2"/>
-      <c r="B168" s="3"/>
-      <c r="C168" s="2"/>
-      <c r="D168" s="2"/>
-      <c r="E168" s="2"/>
+      <c r="B168" s="3">
+        <v>94</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>529</v>
+      </c>
       <c r="F168" s="2"/>
-      <c r="G168" s="3"/>
+      <c r="G168" s="3" t="s">
+        <v>535</v>
+      </c>
       <c r="H168" s="3"/>
       <c r="I168" s="4"/>
+      <c r="J168" t="b">
+        <v>1</v>
+      </c>
       <c r="Y168" s="1"/>
       <c r="AO168" s="2"/>
       <c r="AP168" s="2"/>
       <c r="AQ168" s="4"/>
-      <c r="AR168" s="7"/>
+      <c r="AR168" s="5"/>
       <c r="AS168" s="2"/>
       <c r="AT168" s="2"/>
       <c r="AU168" s="2"/>
@@ -7281,21 +9235,34 @@
       <c r="AW168" s="2"/>
       <c r="AX168" s="2"/>
     </row>
-    <row r="169" spans="1:50" ht="16">
+    <row r="169" spans="1:50" ht="68">
       <c r="A169" s="2"/>
-      <c r="B169" s="3"/>
-      <c r="C169" s="2"/>
-      <c r="D169" s="2"/>
-      <c r="E169" s="2"/>
+      <c r="B169" s="3">
+        <v>94</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>530</v>
+      </c>
       <c r="F169" s="2"/>
-      <c r="G169" s="3"/>
+      <c r="G169" s="3" t="s">
+        <v>536</v>
+      </c>
       <c r="H169" s="3"/>
       <c r="I169" s="4"/>
+      <c r="J169" t="b">
+        <v>1</v>
+      </c>
       <c r="AF169" s="1"/>
       <c r="AO169" s="2"/>
       <c r="AP169" s="2"/>
       <c r="AQ169" s="5"/>
-      <c r="AR169" s="7"/>
+      <c r="AR169" s="5"/>
       <c r="AS169" s="2"/>
       <c r="AT169" s="2"/>
       <c r="AU169" s="2"/>
@@ -7303,21 +9270,34 @@
       <c r="AW169" s="2"/>
       <c r="AX169" s="2"/>
     </row>
-    <row r="170" spans="1:50" ht="16">
+    <row r="170" spans="1:50" ht="51">
       <c r="A170" s="2"/>
-      <c r="B170" s="3"/>
-      <c r="C170" s="2"/>
-      <c r="D170" s="2"/>
-      <c r="E170" s="2"/>
+      <c r="B170" s="3">
+        <v>94</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>531</v>
+      </c>
       <c r="F170" s="2"/>
-      <c r="G170" s="3"/>
+      <c r="G170" s="3" t="s">
+        <v>537</v>
+      </c>
       <c r="H170" s="3"/>
       <c r="I170" s="4"/>
+      <c r="Q170" t="b">
+        <v>1</v>
+      </c>
       <c r="AF170" s="1"/>
       <c r="AO170" s="2"/>
       <c r="AP170" s="2"/>
       <c r="AQ170" s="4"/>
-      <c r="AR170" s="7"/>
+      <c r="AR170" s="5"/>
       <c r="AS170" s="2"/>
       <c r="AT170" s="2"/>
       <c r="AU170" s="2"/>
@@ -7325,13 +9305,119 @@
       <c r="AW170" s="2"/>
       <c r="AX170" s="2"/>
     </row>
-    <row r="1048576" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B1048576" s="3"/>
-      <c r="C1048576" s="2"/>
-      <c r="D1048576" s="2"/>
-      <c r="E1048576" s="2"/>
+    <row r="171" spans="1:50" ht="15.75" customHeight="1">
+      <c r="B171" s="3">
+        <v>94</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="G171" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q171" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:50" ht="15.75" customHeight="1">
+      <c r="B172" s="3">
+        <v>95</v>
+      </c>
+      <c r="C172" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="D172" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="E172" s="2" t="str">
+        <f t="shared" ref="E172:E175" si="7">RIGHT(C172,LEN(C172)-SEARCH(" ",C172,1))</f>
+        <v>Nürnberg - Passau Teilmaßnahme 1</v>
+      </c>
+      <c r="G172" t="s">
+        <v>548</v>
+      </c>
+      <c r="O172" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:50" ht="15.75" customHeight="1">
+      <c r="B173" s="3">
+        <v>95</v>
+      </c>
+      <c r="C173" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="D173" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="E173" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Nürnberg - Passau Teilmaßnahme 2</v>
+      </c>
+      <c r="G173" t="s">
+        <v>553</v>
+      </c>
+      <c r="X173" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:50" ht="15.75" customHeight="1">
+      <c r="B174" s="3">
+        <v>95</v>
+      </c>
+      <c r="C174" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="D174" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="E174" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Nürnberg - Passau Teilmaßnahme 3</v>
+      </c>
+      <c r="G174" t="s">
+        <v>554</v>
+      </c>
+      <c r="O174" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:50" ht="15.75" customHeight="1">
+      <c r="B175" s="3">
+        <v>95</v>
+      </c>
+      <c r="C175" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="D175" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="E175" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Nürnberg - Passau Teilmaßnahme 4</v>
+      </c>
+      <c r="G175" t="s">
+        <v>555</v>
+      </c>
+      <c r="X175" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1048574" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B1048574" s="3"/>
+      <c r="C1048574" s="2"/>
+      <c r="D1048574" s="2"/>
+      <c r="E1048574" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>